--- a/04_Outputs/rC_k600_edited.xlsx
+++ b/04_Outputs/rC_k600_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Howley\Springs\SpringMetabolism_FlowReversals\04_Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SpringMetabolism_FlowReversals\04_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8910743-2677-40B0-A872-10AA8AAB6A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2013896-936E-492B-8EEE-C99C8A0A14CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AM" sheetId="1" r:id="rId1"/>
@@ -368,12 +368,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>9.6864407E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.6864407E-2</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.41148000000000001</c:v>
                 </c:pt>
@@ -10745,13 +10739,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10786,16 +10780,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44958</v>
       </c>
       <c r="B2">
         <v>1.4403855287148499</v>
       </c>
-      <c r="C2">
-        <v>9.6864407E-2</v>
-      </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
@@ -10818,16 +10809,13 @@
         <v>71.140784310000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44958</v>
       </c>
       <c r="B3">
         <v>1.4403855287148499</v>
       </c>
-      <c r="C3">
-        <v>9.6864407E-2</v>
-      </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
@@ -10850,7 +10838,7 @@
         <v>71.140784310000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44929</v>
       </c>
@@ -10882,7 +10870,7 @@
         <v>71.992540000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44929</v>
       </c>
@@ -10917,7 +10905,7 @@
         <v>71.992540000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45050</v>
       </c>
@@ -10941,7 +10929,7 @@
         <v>0.5027608142291885</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44900</v>
       </c>
@@ -10973,7 +10961,7 @@
         <v>71.94</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44900</v>
       </c>
@@ -10999,7 +10987,7 @@
         <v>71.94</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45086</v>
       </c>
@@ -11023,7 +11011,7 @@
         <v>0.65415311940625909</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45028</v>
       </c>
@@ -11055,7 +11043,7 @@
         <v>72.604545450000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45028</v>
       </c>
@@ -11087,7 +11075,7 @@
         <v>72.604545450000003</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44972</v>
       </c>
@@ -11116,7 +11104,7 @@
         <v>71.42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44972</v>
       </c>
@@ -11148,7 +11136,7 @@
         <v>71.42</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44944</v>
       </c>
@@ -11183,7 +11171,7 @@
         <v>71.486959999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44944</v>
       </c>
@@ -11215,7 +11203,7 @@
         <v>71.486959999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45064</v>
       </c>
@@ -11242,7 +11230,7 @@
         <v>21.749985823623899</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44914</v>
       </c>
@@ -11277,7 +11265,7 @@
         <v>71.942899999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44914</v>
       </c>
@@ -11312,7 +11300,7 @@
         <v>71.942899999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44886</v>
       </c>
@@ -11341,7 +11329,7 @@
         <v>10.617293548967</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44886</v>
       </c>
@@ -11367,7 +11355,7 @@
         <v>0.36639253722274701</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45042</v>
       </c>
@@ -11399,7 +11387,7 @@
         <v>73.478181820000003</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45014</v>
       </c>
@@ -11431,7 +11419,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45014</v>
       </c>
@@ -11463,7 +11451,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45075</v>
       </c>
@@ -11492,7 +11480,7 @@
         <v>10.987532720242299</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45075</v>
       </c>
@@ -11533,9 +11521,9 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11570,7 +11558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44958</v>
       </c>
@@ -11596,7 +11584,7 @@
         <v>0.37449092225727298</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44958</v>
       </c>
@@ -11622,7 +11610,7 @@
         <v>0.37449092225727298</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44986</v>
       </c>
@@ -11657,7 +11645,7 @@
         <v>73.188749999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44986</v>
       </c>
@@ -11683,7 +11671,7 @@
         <v>73.188749999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44929</v>
       </c>
@@ -11718,7 +11706,7 @@
         <v>72.545299999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44929</v>
       </c>
@@ -11750,7 +11738,7 @@
         <v>72.545299999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45028</v>
       </c>
@@ -11773,7 +11761,7 @@
         <v>0.31185470424768102</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44972</v>
       </c>
@@ -11799,7 +11787,7 @@
         <v>0.371220831982505</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44972</v>
       </c>
@@ -11828,7 +11816,7 @@
         <v>17.072788736066201</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45000</v>
       </c>
@@ -11863,7 +11851,7 @@
         <v>72.484999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44944</v>
       </c>
@@ -11898,7 +11886,7 @@
         <v>73.188749999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44944</v>
       </c>
@@ -11933,7 +11921,7 @@
         <v>73.188749999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45064</v>
       </c>
@@ -11953,7 +11941,7 @@
         <v>25.6170582803197</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44915</v>
       </c>
@@ -11982,7 +11970,7 @@
         <v>11.1310433257794</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44858</v>
       </c>
@@ -12014,7 +12002,7 @@
         <v>72.918940000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45042</v>
       </c>
@@ -12040,7 +12028,7 @@
         <v>4.6849999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45014</v>
       </c>
@@ -12063,7 +12051,7 @@
         <v>0.21787081390374799</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45075</v>
       </c>
@@ -12101,9 +12089,9 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12138,7 +12126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44958</v>
       </c>
@@ -12167,7 +12155,7 @@
         <v>7.8946973335511696</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44958</v>
       </c>
@@ -12196,7 +12184,7 @@
         <v>7.8946973335511696</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44986</v>
       </c>
@@ -12225,7 +12213,7 @@
         <v>3.11710910140292</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44986</v>
       </c>
@@ -12254,7 +12242,7 @@
         <v>3.11710910140292</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44929</v>
       </c>
@@ -12283,7 +12271,7 @@
         <v>13.983470000424401</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44929</v>
       </c>
@@ -12312,7 +12300,7 @@
         <v>13.983470000424401</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44900</v>
       </c>
@@ -12341,7 +12329,7 @@
         <v>14.1741970535713</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44900</v>
       </c>
@@ -12370,7 +12358,7 @@
         <v>14.1741970535713</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45028</v>
       </c>
@@ -12396,7 +12384,7 @@
         <v>0.16257516671303601</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44972</v>
       </c>
@@ -12425,7 +12413,7 @@
         <v>13.363119988867201</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44972</v>
       </c>
@@ -12454,7 +12442,7 @@
         <v>13.363119988867201</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45000</v>
       </c>
@@ -12483,7 +12471,7 @@
         <v>6.6757055204398403</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44944</v>
       </c>
@@ -12512,7 +12500,7 @@
         <v>14.2495063119576</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44944</v>
       </c>
@@ -12541,7 +12529,7 @@
         <v>14.2495063119576</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44886</v>
       </c>
@@ -12567,7 +12555,7 @@
         <v>0.308629919322502</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44886</v>
       </c>
@@ -12593,7 +12581,7 @@
         <v>0.308629919322502</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45042</v>
       </c>
@@ -12622,7 +12610,7 @@
         <v>16.3871136806031</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45014</v>
       </c>
@@ -12651,7 +12639,7 @@
         <v>10.5899133135515</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45075</v>
       </c>
@@ -12690,9 +12678,9 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12727,7 +12715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45049</v>
       </c>
@@ -12759,7 +12747,7 @@
         <v>72.669256200000007</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45049</v>
       </c>
@@ -12791,7 +12779,7 @@
         <v>72.669256200000007</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44930</v>
       </c>
@@ -12826,7 +12814,7 @@
         <v>74.42</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44930</v>
       </c>
@@ -12861,7 +12849,7 @@
         <v>74.42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45021</v>
       </c>
@@ -12893,7 +12881,7 @@
         <v>71.739999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45021</v>
       </c>
@@ -12925,7 +12913,7 @@
         <v>71.739999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44963</v>
       </c>
@@ -12954,7 +12942,7 @@
         <v>7.0052490404115701</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44963</v>
       </c>
@@ -12983,7 +12971,7 @@
         <v>7.0052490404115701</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44993</v>
       </c>
@@ -13015,7 +13003,7 @@
         <v>74.42</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44993</v>
       </c>
@@ -13047,7 +13035,7 @@
         <v>74.42</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44937</v>
       </c>
@@ -13079,7 +13067,7 @@
         <v>73.290000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44937</v>
       </c>
@@ -13111,7 +13099,7 @@
         <v>73.290000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45089</v>
       </c>
@@ -13134,7 +13122,7 @@
         <v>15.520739137480099</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44907</v>
       </c>
@@ -13154,7 +13142,7 @@
         <v>1.45296403460818</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44907</v>
       </c>
@@ -13174,7 +13162,7 @@
         <v>1.45296403460818</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44879</v>
       </c>
@@ -13203,7 +13191,7 @@
         <v>89.022200679162594</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44879</v>
       </c>
@@ -13232,7 +13220,7 @@
         <v>89.022200679162594</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45063</v>
       </c>
@@ -13258,7 +13246,7 @@
         <v>44.266819485613397</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45063</v>
       </c>
@@ -13284,7 +13272,7 @@
         <v>44.266819485613397</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45035</v>
       </c>
@@ -13319,7 +13307,7 @@
         <v>73.278000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45035</v>
       </c>
@@ -13354,7 +13342,7 @@
         <v>73.278000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44979</v>
       </c>
@@ -13380,7 +13368,7 @@
         <v>5.5499323483159504</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44979</v>
       </c>
@@ -13406,7 +13394,7 @@
         <v>5.5499323483159504</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44951</v>
       </c>
@@ -13435,7 +13423,7 @@
         <v>48.603423342617504</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44951</v>
       </c>
@@ -13464,7 +13452,7 @@
         <v>48.603423342617504</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44893</v>
       </c>
@@ -13493,7 +13481,7 @@
         <v>86.133858792044506</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44893</v>
       </c>
@@ -13522,7 +13510,7 @@
         <v>86.133858792044506</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45076</v>
       </c>
@@ -13557,7 +13545,7 @@
         <v>73.679374999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44865</v>
       </c>
@@ -13592,7 +13580,7 @@
         <v>73.430000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44865</v>
       </c>
@@ -13642,9 +13630,9 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13679,7 +13667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45049</v>
       </c>
@@ -13708,7 +13696,7 @@
         <v>5.24875747685316</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45021</v>
       </c>
@@ -13737,7 +13725,7 @@
         <v>4.9208898744996201</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44963</v>
       </c>
@@ -13763,7 +13751,7 @@
         <v>0.10233726957847</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44963</v>
       </c>
@@ -13792,7 +13780,7 @@
         <v>4.7835932579403098</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44993</v>
       </c>
@@ -13821,7 +13809,7 @@
         <v>5.6773966710839003</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44993</v>
       </c>
@@ -13850,7 +13838,7 @@
         <v>5.1923099914080897</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45063</v>
       </c>
@@ -13879,7 +13867,7 @@
         <v>4.8753017212994401</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45035</v>
       </c>
@@ -13902,7 +13890,7 @@
         <v>7.1203285030649601</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44979</v>
       </c>
@@ -13925,7 +13913,7 @@
         <v>2.48222431997649E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44979</v>
       </c>
@@ -13951,7 +13939,7 @@
         <v>7.49240715523581</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44951</v>
       </c>
@@ -13977,7 +13965,7 @@
         <v>0.157013194707318</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44951</v>
       </c>
@@ -14006,7 +13994,7 @@
         <v>4.7730482515528498</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44865</v>
       </c>
@@ -14029,7 +14017,7 @@
         <v>1.6423830418461599E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44865</v>
       </c>

--- a/04_Outputs/rC_k600_edited.xlsx
+++ b/04_Outputs/rC_k600_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SpringMetabolism_FlowReversals\04_Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\SpringMetabolism_FlowReversals\04_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2013896-936E-492B-8EEE-C99C8A0A14CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF915315-BACD-4242-A253-5DB0BF6A53F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -49,15 +49,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>rep</t>
-  </si>
-  <si>
-    <t>KO2_1d</t>
-  </si>
-  <si>
-    <t>KCO2_1d</t>
   </si>
   <si>
     <t>uh</t>
@@ -72,13 +63,103 @@
     <t>VentTemp</t>
   </si>
   <si>
+    <t>1/3/2023</t>
+  </si>
+  <si>
     <t>AM</t>
+  </si>
+  <si>
+    <t>1/18/2023</t>
+  </si>
+  <si>
+    <t>2/1/2023</t>
+  </si>
+  <si>
+    <t>2/15/2023</t>
+  </si>
+  <si>
+    <t>3/29/2023</t>
+  </si>
+  <si>
+    <t>4/12/2023</t>
+  </si>
+  <si>
+    <t>4/26/2023</t>
+  </si>
+  <si>
+    <t>5/29/2023</t>
+  </si>
+  <si>
+    <t>11/21/2022</t>
+  </si>
+  <si>
+    <t>12/5/2022</t>
+  </si>
+  <si>
+    <t>12/19/2022</t>
   </si>
   <si>
     <t>GB</t>
   </si>
   <si>
+    <t>3/1/2023</t>
+  </si>
+  <si>
+    <t>3/15/2023</t>
+  </si>
+  <si>
+    <t>10/24/2022</t>
+  </si>
+  <si>
+    <t>12/20/2022</t>
+  </si>
+  <si>
+    <t>1/4/2023</t>
+  </si>
+  <si>
     <t>LF</t>
+  </si>
+  <si>
+    <t>1/11/2023</t>
+  </si>
+  <si>
+    <t>1/25/2023</t>
+  </si>
+  <si>
+    <t>2/6/2023</t>
+  </si>
+  <si>
+    <t>2/22/2023</t>
+  </si>
+  <si>
+    <t>3/8/2023</t>
+  </si>
+  <si>
+    <t>4/5/2023</t>
+  </si>
+  <si>
+    <t>4/19/2023</t>
+  </si>
+  <si>
+    <t>5/3/2023</t>
+  </si>
+  <si>
+    <t>5/17/2023</t>
+  </si>
+  <si>
+    <t>5/30/2023</t>
+  </si>
+  <si>
+    <t>10/31/2022</t>
+  </si>
+  <si>
+    <t>11/14/2022</t>
+  </si>
+  <si>
+    <t>11/28/2022</t>
+  </si>
+  <si>
+    <t>12/12/2022</t>
   </si>
   <si>
     <t>OS</t>
@@ -88,9 +169,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,9 +178,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +207,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,193 +313,158 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="7.4070209973753284E-2"/>
-                  <c:y val="-0.76260316418780982"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>AM!$B$2:$B$25</c:f>
+              <c:f>AM!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1.4403855287148499</c:v>
+                  <c:v>0.66360277136277601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4403855287148499</c:v>
+                  <c:v>0.66360277136277601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64698524568183802</c:v>
+                  <c:v>0.84496568832957797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64698524568183802</c:v>
+                  <c:v>0.84496568832957797</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.79712100240526</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.79712100240526</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.91936208989603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.91936208989603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5364118092654899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5364118092654899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.14254792657094</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.14254792657094</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76948902444658396</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.74683198736593104</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.66831711482098599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.66831711482098599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.64229622161300404</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.14254792657094</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.14254792657094</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.91936208989603</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.91936208989603</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.77392929096712304</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.77392929096712304</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.634197514012805</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0.81193724612891904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81193724612891904</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64229622161300404</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64229622161300404</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.66551573852542301</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66551573852542301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66831711482098599</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66831711482098599</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.65580679181917101</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="24">
                   <c:v>0.65580679181917101</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.66551573852542301</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.66551573852542301</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.76948902444658396</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.2579034636172599</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2579034636172599</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.81193724612891904</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.81193724612891904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AM!$C$2:$C$25</c:f>
+              <c:f>AM!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.41148000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41148000000000001</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.41148000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.41148000000000001</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6864407E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.392848743</c:v>
+                  <c:v>9.6864407E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.392848743</c:v>
+                  <c:v>2.5907667999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5907667999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.111489093</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.111489093</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>8.1843182E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>8.1843182E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41148000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.41148000000000001</c:v>
+                  <c:v>0.24384</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.392848743</c:v>
+                  <c:v>0.26351463400000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.392848743</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.24384</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.24384</c:v>
+                  <c:v>0.26351463400000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.24384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.111489093</c:v>
+                  <c:v>0.24384</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.111489093</c:v>
+                  <c:v>0.392848743</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.26351463400000003</c:v>
+                  <c:v>0.392848743</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.26351463400000003</c:v>
+                  <c:v>0.392848743</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.392848743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,7 +472,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B609-4B64-9425-A69F79F5B5C4}"/>
+              <c16:uniqueId val="{00000000-F5C6-4922-966C-B0FFB09C109A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -437,11 +484,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="701042063"/>
-        <c:axId val="701043503"/>
+        <c:axId val="758366799"/>
+        <c:axId val="764062447"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="701042063"/>
+        <c:axId val="758366799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -498,12 +545,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="701043503"/>
+        <c:crossAx val="764062447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="701043503"/>
+        <c:axId val="764062447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="701042063"/>
+        <c:crossAx val="758366799"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -671,7 +718,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>OS!$I$1</c:f>
+              <c:f>OS!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -704,15 +751,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>OS!$H$2:$H$15</c:f>
+              <c:f>OS!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.18704665373388801</c:v>
+                  <c:v>0.157013194707318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1498528414475699E-2</c:v>
+                  <c:v>0.157013194707318</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.10233726957847</c:v>
@@ -721,25 +768,25 @@
                   <c:v>0.10233726957847</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.48222431997649E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.48222431997649E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2.4397828511496002E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>2.4397828511496002E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>5.1498528414475699E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18704665373388801</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.202919516150181</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.48222431997649E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.48222431997649E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.157013194707318</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.157013194707318</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.6423830418461599E-2</c:v>
@@ -752,36 +799,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OS!$I$2:$I$15</c:f>
+              <c:f>OS!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.24875747685316</c:v>
+                  <c:v>12.0270837749951</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9208898744996201</c:v>
+                  <c:v>4.8225004830932496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0901187683293201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7835932579403098</c:v>
+                  <c:v>3.4348545944842801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6773966710839003</c:v>
+                  <c:v>11.4435970636991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1923099914080897</c:v>
+                  <c:v>5.2429283117314203</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8753017212994401</c:v>
+                  <c:v>8.1503583923791698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1203285030649601</c:v>
+                  <c:v>22.095712310493202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8251150947610704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.49240715523581</c:v>
+                  <c:v>6.4381260228580199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5662125718823496</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7730482515528498</c:v>
+                  <c:v>5.1949848895037301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,7 +845,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F787-46BD-AD7C-3167E446B183}"/>
+              <c16:uniqueId val="{00000000-6215-47D9-A63F-F99287AF82EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -801,11 +857,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="938080287"/>
-        <c:axId val="938080767"/>
+        <c:axId val="947034639"/>
+        <c:axId val="947036079"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="938080287"/>
+        <c:axId val="947034639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,12 +918,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="938080767"/>
+        <c:crossAx val="947036079"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="938080767"/>
+        <c:axId val="947036079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="938080287"/>
+        <c:crossAx val="947034639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1035,7 +1091,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AM!$I$1</c:f>
+              <c:f>AM!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1066,201 +1122,152 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.7863954505686791E-2"/>
-                  <c:y val="-0.20013414989792944"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>AM!$H$2:$H$25</c:f>
+              <c:f>AM!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>6.7248944861605806E-2</c:v>
+                  <c:v>0.62006974316123398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7248944861605806E-2</c:v>
+                  <c:v>0.62006974316123398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.635995956239085</c:v>
+                  <c:v>0.48697835389441602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.635995956239085</c:v>
+                  <c:v>0.48697835389441602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5027608142291885</c:v>
+                  <c:v>5.38997690585983E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>5.38997690585983E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.34980617447766E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.34980617447766E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.25645899931604E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.25645899931604E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1632165353124999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1632165353124999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31688561142944099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32455049359585503</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32455049359585503</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36639253722274701</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.36639253722274701</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.587817870121772</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="22">
                   <c:v>0.587817870121772</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.65415311940625909</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.1632165353124999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.1632165353124999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.34980617447766E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.34980617447766E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.53167647846201005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.53167647846201005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.66752242742036305</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="23">
                   <c:v>0.59903122062865499</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="24">
                   <c:v>0.59903122062865499</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.36639253722274701</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.36639253722274701</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.31688561142944099</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.8630881641265993E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.8630881641265993E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.32455049359585503</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.32455049359585503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AM!$I$2:$I$25</c:f>
+              <c:f>AM!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>2.0714483917736399</c:v>
-                </c:pt>
+                <c:ptCount val="25"/>
                 <c:pt idx="1">
-                  <c:v>1.88343054918427</c:v>
+                  <c:v>14.0537866274825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.2509884099436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.597386041984802</c:v>
+                  <c:v>17.9748429691486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3659747293628499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.43477614979118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.762817767337299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.954970513126703</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.8232071474115203</c:v>
+                  <c:v>3.2531836035536301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.13239127164475</c:v>
+                  <c:v>2.4433323290317999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0432970693483599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3131505261474601</c:v>
+                  <c:v>2.7839849332143101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.6058990558648</c:v>
+                  <c:v>7.6754733355837299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.624195858075399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.749985823623899</c:v>
+                  <c:v>16.1504080056141</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.3883495570071</c:v>
+                  <c:v>7.76777594040046</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.378626851467601</c:v>
+                  <c:v>11.6535292051355</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.617293548967</c:v>
+                  <c:v>32.6657378105105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.880320990253502</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.439873058641499</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.2727793736385298</c:v>
+                  <c:v>8.0612152297113795</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.35570364737181</c:v>
+                  <c:v>23.531152831216499</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.987532720242299</c:v>
+                  <c:v>18.703245444769301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.9745813671168</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.496680423021001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1268,7 +1275,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C394-4F95-BC22-9CAF637E4EBB}"/>
+              <c16:uniqueId val="{00000000-444C-4316-8CF2-78B36D288992}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1280,11 +1287,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="932717151"/>
-        <c:axId val="932719551"/>
+        <c:axId val="763641487"/>
+        <c:axId val="763643407"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="932717151"/>
+        <c:axId val="763641487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,12 +1348,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="932719551"/>
+        <c:crossAx val="763643407"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="932719551"/>
+        <c:axId val="763643407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="932717151"/>
+        <c:crossAx val="763641487"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1559,12 +1566,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.7766841644794403E-3"/>
-                  <c:y val="-0.37387029746281714"/>
-                </c:manualLayout>
-              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1597,111 +1598,138 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>GB!$B$2:$B$19</c:f>
+              <c:f>GB!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>0.500234239386116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.500234239386116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49838619196324002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49838619196324002</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.496481994488156</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>0.496481994488156</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>0.49364073113116103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49364073113116103</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.48014251849385198</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>0.48014251849385198</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.500234239386116</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.500234239386116</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
+                  <c:v>0.48738009477924898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46633139234925403</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.44959398748926399</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.47622327404387599</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.47622327404387599</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.48738009477924898</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.49838619196324002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.49838619196324002</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>0.42847041975631001</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.40867897602588799</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>0.41829191635495</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.57001899623787999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55068895347565805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52913409322569804</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.51433262189204798</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.57001899623787999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.42847041975631001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.46633139234925403</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.41829191635495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>GB!$C$2:$C$19</c:f>
+              <c:f>GB!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>0.13716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13716</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.195072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.195072</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.18592800000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>0.18592800000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20116800000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20116800000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13716</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13716</c:v>
+                <c:pt idx="6">
+                  <c:v>0.176784</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.176784</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.176784</c:v>
+                  <c:v>0.20116800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.20116800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.20319999999999999</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.195072</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.195072</c:v>
+                  <c:v>0.21165435671832322</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22967719427156053</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.25242305200640536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2737344786153238</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26338326446898985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0498811999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.132051846</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16555581</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.15135790499999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.0498811999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,7 +1737,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8260-49C8-A520-6CC93453B0FB}"/>
+              <c16:uniqueId val="{00000000-BC5F-4633-A0CD-A67BF15785F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1721,11 +1749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1045670495"/>
-        <c:axId val="1045674335"/>
+        <c:axId val="902936111"/>
+        <c:axId val="902936591"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1045670495"/>
+        <c:axId val="902936111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,12 +1810,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045674335"/>
+        <c:crossAx val="902936591"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1045674335"/>
+        <c:axId val="902936591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1844,7 +1872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045670495"/>
+        <c:crossAx val="902936111"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1914,6 +1942,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1923,6 +1981,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GB!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k600_1d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:noFill/>
@@ -1956,13 +2025,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.55819772528433942"/>
-                  <c:y val="-0.1801709682123068"/>
+                  <c:x val="3.6631233595800526E-2"/>
+                  <c:y val="-0.7505479002624672"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1997,90 +2066,120 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>GB!$H$2:$H$19</c:f>
+              <c:f>GB!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>0.27419154708066701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27419154708066701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39140731253322603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39140731253322603</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.37449092225727298</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>0.37449092225727298</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>0.35812279832522198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35812279832522198</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.418975600475957</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>0.418975600475957</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27419154708066701</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.27419154708066701</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
+                  <c:v>0.41692305897727699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21787081390374799</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.31185470424768102</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.371220831982505</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.371220831982505</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.41692305897727699</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.39140731253322603</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.39140731253322603</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.40903640465934199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66980318213869638</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.62966376870044671</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15876455451009799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.239793889393565</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31288063294266599</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.29428019642854403</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15876455451009799</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.40903640465934199</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.21787081390374799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>GB!$I$2:$I$19</c:f>
+              <c:f>GB!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="20"/>
+                <c:pt idx="1">
+                  <c:v>20.759702379649699</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.389510591116601</c:v>
+                  <c:v>11.7604829329048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.63069034185</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1709423565808308</c:v>
+                  <c:v>16.082464877533099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.278549967453198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.3266040851639</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.8324828082942</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.072788736066201</c:v>
+                  <c:v>12.5427239203201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.882765933680599</c:v>
+                  <c:v>10.123963721124101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.439811595536</c:v>
+                  <c:v>15.491084387970799</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.999344501290301</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.1310433257794</c:v>
+                  <c:v>28.8790872259084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.877696149374302</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.7487533885655</c:v>
+                  <c:v>44.743071696612503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.612268500013801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,7 +2187,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B318-43D0-BB2D-764A4EBC35D1}"/>
+              <c16:uniqueId val="{00000000-2C8E-48B5-8D6C-C331D39C4DBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2100,11 +2199,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="938092767"/>
-        <c:axId val="938078367"/>
+        <c:axId val="933165951"/>
+        <c:axId val="933162591"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="938092767"/>
+        <c:axId val="933165951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,12 +2260,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="938078367"/>
+        <c:crossAx val="933162591"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="938078367"/>
+        <c:axId val="933162591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +2322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="938092767"/>
+        <c:crossAx val="933165951"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2376,15 +2475,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="8.4368985126859142E-2"/>
-                  <c:y val="-0.68208734324876052"/>
-                </c:manualLayout>
-              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2417,129 +2510,144 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ID!$B$2:$B$20</c:f>
+              <c:f>ID!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.04798446939444</c:v>
+                  <c:v>0.84629581545158405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.04798446939444</c:v>
+                  <c:v>0.84629581545158405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.50503910572627</c:v>
+                  <c:v>0.89039772710795695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.50503910572627</c:v>
+                  <c:v>0.89039772710795695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64382772014720802</c:v>
+                  <c:v>1.2795322417230099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64382772014720802</c:v>
+                  <c:v>1.2795322417230099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.685413690521399</c:v>
+                  <c:v>1.93587245637372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.685413690521399</c:v>
+                  <c:v>1.93587245637372</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.33812941667773</c:v>
+                  <c:v>2.4780665467373599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8335544902860199</c:v>
+                  <c:v>2.4780665467373599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8335544902860199</c:v>
+                  <c:v>1.77503019033284</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6718476284946899</c:v>
+                  <c:v>1.7075802077995601</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.60665795901629205</c:v>
+                  <c:v>1.4922591097125699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60665795901629205</c:v>
+                  <c:v>1.11609574558469</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.79626054252764999</c:v>
+                  <c:v>1.00713808149247</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.79626054252764999</c:v>
+                  <c:v>0.99935539120017003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.82599635143238004</c:v>
+                  <c:v>0.99935539120017003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.56828752173985</c:v>
+                  <c:v>0.94487655915406399</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.608792460150545</c:v>
+                  <c:v>0.94487655915406399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87483234652335495</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.87483234652335495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ID!$C$2:$C$20</c:f>
+              <c:f>ID!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>0.38927203100000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38927203100000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24384</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.27730699199999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>0.27730699199999997</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>0.152032679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.152032679</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9.9617103999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>9.9617103999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.38927203100000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.38927203100000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.31575888699999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.31575888699999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>0.20904352600000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14364185700000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.217546613</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.152032679</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.152032679</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.20904352600000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24384</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.24384</c:v>
+                  <c:v>0.29169342100000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.245749827</c:v>
+                  <c:v>0.28515777324299396</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.245749827</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.29169342100000001</c:v>
+                  <c:v>0.245749827</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14364185700000001</c:v>
+                  <c:v>0.31575888699999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31575888699999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27092143800000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27092143800000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2547,7 +2655,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D59-4637-8685-55213E5BB8C2}"/>
+              <c16:uniqueId val="{00000000-0F09-4C26-9DD6-6ED5BC259A59}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2559,11 +2667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1045673375"/>
-        <c:axId val="1045657535"/>
+        <c:axId val="919292303"/>
+        <c:axId val="919292783"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1045673375"/>
+        <c:axId val="919292303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2620,12 +2728,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045657535"/>
+        <c:crossAx val="919292783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1045657535"/>
+        <c:axId val="919292783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2682,7 +2790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045673375"/>
+        <c:crossAx val="919292303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2793,7 +2901,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ID!$I$1</c:f>
+              <c:f>ID!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2824,166 +2932,128 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ID!$H$2:$H$20</c:f>
+              <c:f>ID!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.26460982972413499</c:v>
+                  <c:v>0.45997158900317198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26460982972413499</c:v>
+                  <c:v>0.45997158900317198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9766686185570999E-2</c:v>
+                  <c:v>0.27385514649953202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9766686185570999E-2</c:v>
+                  <c:v>0.27385514649953202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60462142094626703</c:v>
+                  <c:v>0.21672528675524499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60462142094626703</c:v>
+                  <c:v>0.21672528675524499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46068365917786103</c:v>
+                  <c:v>7.8534450190374402E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46068365917786103</c:v>
+                  <c:v>7.8534450190374402E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16257516671303601</c:v>
+                  <c:v>4.0199527382005301E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2916913462596095E-2</c:v>
+                  <c:v>4.0199527382005301E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2916913462596095E-2</c:v>
+                  <c:v>0.117768997473109</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12503742711781701</c:v>
+                  <c:v>8.4120122934137995E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40193983508498099</c:v>
+                  <c:v>0.14578340422522401</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40193983508498099</c:v>
+                  <c:v>0.26135161087563402</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.308629919322502</c:v>
+                  <c:v>0.28313672026026554</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.308629919322502</c:v>
+                  <c:v>0.24590834168099901</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35314129474563299</c:v>
+                  <c:v>0.24590834168099901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.1591532170481604E-2</c:v>
+                  <c:v>0.33418004070573498</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.25717622018697162</c:v>
+                  <c:v>0.33418004070573498</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30968383722511</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.30968383722511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ID!$I$2:$I$20</c:f>
+              <c:f>ID!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>7.8946973335511696</c:v>
+                  <c:v>7.8958984290259</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8946973335511696</c:v>
+                  <c:v>7.8958984290259</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.11710910140292</c:v>
+                  <c:v>6.2631698085533101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.11710910140292</c:v>
+                  <c:v>6.2631698085533101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.983470000424401</c:v>
+                  <c:v>4.17908012369488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.983470000424401</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.1741970535713</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.1741970535713</c:v>
+                  <c:v>4.17908012369488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.91650182628218</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.363119988867201</c:v>
+                  <c:v>1.91650182628218</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.363119988867201</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.6757055204398403</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.2495063119576</c:v>
+                  <c:v>4.44794425583971</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.2495063119576</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.3871136806031</c:v>
+                  <c:v>8.5316662064735205</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3052048733349402</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.5899133135515</c:v>
+                  <c:v>7.0638592430665703</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0638592430665703</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2264856374067996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2264856374067996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2991,7 +3061,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8025-43E1-A7AF-A058302FC72D}"/>
+              <c16:uniqueId val="{00000000-79AD-4653-A603-410F2890D7C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3003,11 +3073,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1045675295"/>
-        <c:axId val="1045676255"/>
+        <c:axId val="770556415"/>
+        <c:axId val="770556895"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1045675295"/>
+        <c:axId val="770556415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3064,12 +3134,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045676255"/>
+        <c:crossAx val="770556895"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1045676255"/>
+        <c:axId val="770556895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,7 +3196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045675295"/>
+        <c:crossAx val="770556415"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3279,44 +3349,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.1657992125984252"/>
-                  <c:y val="-0.7216575532225139"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3325,22 +3359,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.20547930573848</c:v>
+                  <c:v>0.27582680972963097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20547930573848</c:v>
+                  <c:v>0.27582680972963097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27582680972963097</c:v>
+                  <c:v>0.14842325926962999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27582680972963097</c:v>
+                  <c:v>0.14842325926962999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50655758454314603</c:v>
+                  <c:v>0.13941805406320101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50655758454314603</c:v>
+                  <c:v>0.13941805406320101</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.35708644464821998</c:v>
@@ -3349,70 +3383,64 @@
                   <c:v>0.35708644464821998</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.97908907233996301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97908907233996301</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.73912910715284497</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.73912910715284497</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.14842325926962999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.14842325926962999</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30718976746298698</c:v>
+                  <c:v>0.50655758454314603</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16056832408994501</c:v>
+                  <c:v>0.50655758454314603</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16056832408994501</c:v>
+                  <c:v>0.26422745354100802</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.23799883780685399</c:v>
+                  <c:v>0.26422745354100802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.23799883780685399</c:v>
+                  <c:v>0.20547930573848</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.168078940883987</c:v>
+                  <c:v>0.20547930573848</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.168078940883987</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.26422745354100802</c:v>
+                  <c:v>0.168078940883987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26422745354100802</c:v>
+                  <c:v>0.25776243935158599</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97908907233996301</c:v>
+                  <c:v>0.30718976746298698</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97908907233996301</c:v>
+                  <c:v>0.24912069961521999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.13941805406320101</c:v>
+                  <c:v>0.24912069961521999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.13941805406320101</c:v>
+                  <c:v>0.23799883780685399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.26752308407063402</c:v>
+                  <c:v>0.23799883780685399</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.26752308407063402</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.25776243935158599</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.24912069961521999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.24912069961521999</c:v>
+                  <c:v>0.26752308407063402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3424,16 +3452,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.10404495</c:v>
+                  <c:v>9.9059999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10404495</c:v>
+                  <c:v>9.9059999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9059999999999995E-2</c:v>
+                  <c:v>0.103632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9059999999999995E-2</c:v>
+                  <c:v>0.103632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.100003886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.100003886</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6.8341643999999993E-2</c:v>
@@ -3441,50 +3475,62 @@
                 <c:pt idx="7">
                   <c:v>6.8341643999999993E-2</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7164556999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7164556999999995E-2</c:v>
+                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.103632</c:v>
+                  <c:v>5.9129280999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.103632</c:v>
+                  <c:v>5.9129280999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12576395200000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.23330000000000001</c:v>
+                  <c:v>0.12576395200000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.23330000000000001</c:v>
+                  <c:v>9.0472021999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>9.0472021999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10404495</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10404495</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.142205108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11911748799999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11911748799999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.23090909100000001</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="25">
                   <c:v>0.23090909100000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.0472021999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.0472021999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.100003886</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.100003886</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.23330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.23330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.142205108</c:v>
+                  <c:v>0.23330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.11911748799999999</c:v>
+                  <c:v>0.23330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.11911748799999999</c:v>
+                  <c:v>0.23330000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3492,7 +3538,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4722-442C-80EC-869E52B8B28D}"/>
+              <c16:uniqueId val="{00000000-47FB-499E-8746-F3749B60AD0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3504,11 +3550,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="938084607"/>
-        <c:axId val="938090847"/>
+        <c:axId val="935109439"/>
+        <c:axId val="935107999"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="938084607"/>
+        <c:axId val="935109439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3565,12 +3611,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="938090847"/>
+        <c:crossAx val="935107999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="938090847"/>
+        <c:axId val="935107999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3627,7 +3673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="938084607"/>
+        <c:crossAx val="935109439"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3738,7 +3784,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>LF!$I$1</c:f>
+              <c:f>LF!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3771,27 +3817,27 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>LF!$H$2:$H$31</c:f>
+              <c:f>LF!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.50635245055977096</c:v>
+                  <c:v>0.359138403178066</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50635245055977096</c:v>
+                  <c:v>0.359138403178066</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.359138403178066</c:v>
+                  <c:v>0.69821940651323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.359138403178066</c:v>
+                  <c:v>0.69821940651323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24827177765667799</c:v>
+                  <c:v>0.71729509260447999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24827177765667799</c:v>
+                  <c:v>0.71729509260447999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.19138683370444401</c:v>
@@ -3800,154 +3846,160 @@
                   <c:v>0.19138683370444401</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>7.8812601610986702E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8812601610986702E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7.9998582693852197E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>7.9998582693852197E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.69821940651323</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.69821940651323</c:v>
+                <c:pt idx="12">
+                  <c:v>0.24827177765667799</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.45296403460818</c:v>
+                  <c:v>0.24827177765667799</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.45296403460818</c:v>
+                  <c:v>0.34240205091314901</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97021100240578795</c:v>
+                  <c:v>0.34240205091314901</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97021100240578795</c:v>
+                  <c:v>0.50635245055977096</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.32164483971442398</c:v>
+                  <c:v>0.50635245055977096</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.32164483971442398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.34240205091314901</c:v>
+                  <c:v>0.32164483971442398</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.34240205091314901</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.8812601610986702E-2</c:v>
+                  <c:v>0.55169057352857198</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.8812601610986702E-2</c:v>
+                  <c:v>0.47815170792303902</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.71729509260447999</c:v>
+                  <c:v>0.47815170792303902</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.71729509260447999</c:v>
+                  <c:v>0.97021100240578795</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.87207427654505298</c:v>
+                  <c:v>0.97021100240578795</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.87207427654505298</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.55169057352857198</c:v>
+                  <c:v>0.87207427654505298</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.47815170792303902</c:v>
+                  <c:v>1.45296403460818</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.47815170792303902</c:v>
+                  <c:v>1.45296403460818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LF!$I$2:$I$31</c:f>
+              <c:f>LF!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>45.538030659806502</c:v>
+                  <c:v>24.690084932127998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.538030659806502</c:v>
+                  <c:v>24.690084932127998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.698055456468499</c:v>
+                  <c:v>118.259222088889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.698055456468499</c:v>
+                  <c:v>118.259222088889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.3100590742813</c:v>
+                  <c:v>50.954752325421801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.3100590742813</c:v>
+                  <c:v>50.954752325421801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0052490404115701</c:v>
+                  <c:v>9.73092604234097</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0052490404115701</c:v>
+                  <c:v>9.73092604234097</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4213899411591502</c:v>
+                  <c:v>12.1601192837523</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4213899411591502</c:v>
+                  <c:v>12.1601192837523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9516472320781002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9516472320781002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.520739137480099</c:v>
+                  <c:v>30.7702058957052</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.7702058957052</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.983383524448797</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>89.022200679162594</c:v>
+                  <c:v>34.983383524448797</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>89.022200679162594</c:v>
+                  <c:v>53.152789367811998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44.266819485613397</c:v>
+                  <c:v>53.152789367811998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44.266819485613397</c:v>
+                  <c:v>33.341043343649702</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.0351288685893</c:v>
+                  <c:v>33.341043343649702</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28.0351288685893</c:v>
+                  <c:v>31.9180285667398</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.5499323483159504</c:v>
+                  <c:v>15.8650769934215</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.5499323483159504</c:v>
+                  <c:v>26.1959995510725</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48.603423342617504</c:v>
+                  <c:v>26.1959995510725</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>48.603423342617504</c:v>
+                  <c:v>94.218748150536896</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>86.133858792044506</c:v>
+                  <c:v>94.218748150536896</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>86.133858792044506</c:v>
+                  <c:v>115.910838296351</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>34.949270030490098</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25.415801852451601</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>25.415801852451601</c:v>
+                  <c:v>115.910838296351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3955,7 +4007,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C6C-44EC-BA40-F66581DADB55}"/>
+              <c16:uniqueId val="{00000000-C270-4003-919E-04580255B2B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3967,11 +4019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="938082207"/>
-        <c:axId val="938082687"/>
+        <c:axId val="903307263"/>
+        <c:axId val="903306783"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="938082207"/>
+        <c:axId val="903307263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4028,12 +4080,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="938082687"/>
+        <c:crossAx val="903306783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="938082687"/>
+        <c:axId val="903306783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4090,7 +4142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="938082207"/>
+        <c:crossAx val="903307263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4239,10 +4291,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.73759563320647703</c:v>
+                  <c:v>0.74411257103448103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0535668624027901</c:v>
+                  <c:v>0.74411257103448103</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.87528110109794</c:v>
@@ -4251,28 +4303,28 @@
                   <c:v>0.87528110109794</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.62598028208757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.62598028208757</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.32277923770115</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>1.32277923770115</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>1.0535668624027901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78894922945176305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73759563320647703</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.73062868871751996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.78894922945176305</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.62598028208757</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.62598028208757</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.74411257103448103</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.74411257103448103</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.74233596483651698</c:v>
@@ -4290,10 +4342,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.137964795</c:v>
+                  <c:v>0.116835492</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4257143000000001E-2</c:v>
+                  <c:v>0.116835492</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.9573877999999996E-2</c:v>
@@ -4301,20 +4353,20 @@
                 <c:pt idx="3">
                   <c:v>8.9573877999999996E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>3.2272940999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>3.2272940999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>5.4257143000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.137964795</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.14825882000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.116835492</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.116835492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4322,7 +4374,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4DC5-48F8-ADFA-668D2A27D361}"/>
+              <c16:uniqueId val="{00000000-7C41-4286-A70C-96A8AE7DE1E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4334,11 +4386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="695998271"/>
-        <c:axId val="695999711"/>
+        <c:axId val="945895119"/>
+        <c:axId val="945897519"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="695998271"/>
+        <c:axId val="945895119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4395,12 +4447,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="695999711"/>
+        <c:crossAx val="945897519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="695999711"/>
+        <c:axId val="945897519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4457,7 +4509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="695998271"/>
+        <c:crossAx val="945895119"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10077,15 +10129,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10093,7 +10145,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E281E38E-83B2-0DB1-2220-F4845F93B508}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111C2BB0-1B7E-2E21-A3A2-48FF56F2344F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10113,23 +10165,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC8308C-3839-78AE-59BC-0AA899A2C120}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884832AB-1A22-15B7-230E-FCC21543F5CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10154,23 +10206,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A4A923-E0FA-90F5-535D-D1AD57985321}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6715D244-34EE-91E0-4052-616B84402580}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10190,23 +10242,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446B88AF-9CD3-581E-BCCB-CB055729D96D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A70A38-24F1-18EA-CF72-89146C6AE696}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10231,23 +10283,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CD15C9-CE2F-021F-3881-AB197D11419D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8546302-9476-84DA-5BE9-EFEE3823B6A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10267,23 +10319,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E3229C-A422-BFD6-6469-79F71D8C51E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA2DBC8-8724-29C8-75F9-C5B9AE60D074}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10308,23 +10360,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FEFA8B-ACC1-60F6-7B88-5E8733F8BD69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08230FE-1D16-4244-6DCB-E9A5D0952D17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10344,23 +10396,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23730F43-8B5D-BE54-A11B-BA36C11C4DCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DB244-3B0F-16B4-3B15-343707D38CC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10385,23 +10437,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C78177-243E-D3CA-C27C-3A110E76F81E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BDBD2CE-93FC-AD29-61E0-E80C3499DA84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10421,23 +10473,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87D5BAB-1BA3-B025-5799-89C586B4DDE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E82409B-4548-0D89-6044-A166B91BFB66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10737,15 +10789,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10770,740 +10822,544 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2">
+        <v>0.66360277136277601</v>
+      </c>
+      <c r="C2">
+        <v>0.41148000000000001</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E2">
+        <v>0.62006974316123398</v>
+      </c>
+      <c r="G2">
+        <v>1.5</v>
+      </c>
+      <c r="H2">
+        <v>71.992540000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.66360277136277601</v>
+      </c>
+      <c r="C3">
+        <v>0.41148000000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>0.62006974316123398</v>
+      </c>
+      <c r="F3">
+        <v>14.0537866274825</v>
+      </c>
+      <c r="G3">
+        <v>1.5</v>
+      </c>
+      <c r="H3">
+        <v>71.992540000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44958</v>
-      </c>
-      <c r="B2">
-        <v>1.4403855287148499</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1.86346942347367</v>
-      </c>
-      <c r="G2">
-        <v>2.0812317066252399</v>
-      </c>
-      <c r="H2">
-        <v>6.7248944861605806E-2</v>
-      </c>
-      <c r="I2">
-        <v>2.0714483917736399</v>
-      </c>
-      <c r="K2">
-        <v>71.140784310000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44958</v>
-      </c>
-      <c r="B3">
-        <v>1.4403855287148499</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1.6943290760123499</v>
-      </c>
-      <c r="G3">
-        <v>1.89232586810071</v>
-      </c>
-      <c r="H3">
-        <v>6.7248944861605806E-2</v>
-      </c>
-      <c r="I3">
-        <v>1.88343054918427</v>
-      </c>
-      <c r="K3">
-        <v>71.140784310000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44929</v>
-      </c>
       <c r="B4">
-        <v>0.64698524568183802</v>
+        <v>0.84496568832957797</v>
       </c>
       <c r="C4">
         <v>0.41148000000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.48697835389441602</v>
       </c>
       <c r="F4">
-        <v>6.6882432065297799</v>
+        <v>14.2509884099436</v>
       </c>
       <c r="G4">
-        <v>7.4698214243316903</v>
+        <v>1.097</v>
       </c>
       <c r="H4">
-        <v>0.635995956239085</v>
-      </c>
-      <c r="J4">
-        <v>1.5</v>
-      </c>
-      <c r="K4">
-        <v>71.992540000000005</v>
+        <v>71.486959999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44929</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>0.64698524568183802</v>
+        <v>0.84496568832957797</v>
       </c>
       <c r="C5">
         <v>0.41148000000000001</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>0.48697835389441602</v>
+      </c>
+      <c r="F5">
+        <v>17.9748429691486</v>
+      </c>
+      <c r="G5">
+        <v>1.097</v>
+      </c>
+      <c r="H5">
+        <v>71.486959999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>15.8305613369509</v>
-      </c>
-      <c r="G5">
-        <v>17.6804973417388</v>
-      </c>
-      <c r="H5">
-        <v>0.635995956239085</v>
-      </c>
-      <c r="I5">
-        <v>17.597386041984802</v>
-      </c>
-      <c r="J5">
-        <v>1.5</v>
-      </c>
-      <c r="K5">
-        <v>71.992540000000005</v>
+      <c r="B6">
+        <v>1.79712100240526</v>
+      </c>
+      <c r="C6">
+        <v>9.6864407E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>5.38997690585983E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.3659747293628499</v>
+      </c>
+      <c r="H6">
+        <v>71.140784310000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45050</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1.79712100240526</v>
+      </c>
+      <c r="C7">
+        <v>9.6864407E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>5.38997690585983E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.43477614979118</v>
+      </c>
+      <c r="H7">
+        <v>71.140784310000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1.91936208989603</v>
+      </c>
+      <c r="C8">
+        <v>2.5907667999999998E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>1.34980617447766E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.762817767337299</v>
+      </c>
+      <c r="G8">
+        <v>1.288</v>
+      </c>
+      <c r="H8">
+        <v>71.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1.91936208989603</v>
+      </c>
+      <c r="C9">
+        <v>2.5907667999999998E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1.34980617447766E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.954970513126703</v>
+      </c>
+      <c r="G9">
+        <v>1.288</v>
+      </c>
+      <c r="H9">
+        <v>71.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1.5364118092654899</v>
+      </c>
+      <c r="C10">
+        <v>0.111489093</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>7.25645899931604E-2</v>
+      </c>
+      <c r="F10">
+        <v>3.2531836035536301</v>
+      </c>
+      <c r="G10">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1.5364118092654899</v>
+      </c>
+      <c r="C11">
+        <v>0.111489093</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>7.25645899931604E-2</v>
+      </c>
+      <c r="F11">
+        <v>2.4433323290317999</v>
+      </c>
+      <c r="G11">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1.14254792657094</v>
+      </c>
+      <c r="C12">
+        <v>8.1843182E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>7.1632165353124999E-2</v>
+      </c>
+      <c r="F12">
+        <v>7.0432970693483599</v>
+      </c>
+      <c r="H12">
+        <v>72.604545450000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1.14254792657094</v>
+      </c>
+      <c r="C13">
+        <v>8.1843182E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>7.1632165353124999E-2</v>
+      </c>
+      <c r="F13">
+        <v>2.7839849332143101</v>
+      </c>
+      <c r="H13">
+        <v>72.604545450000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.76948902444658396</v>
+      </c>
+      <c r="C14">
+        <v>0.24384</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>0.31688561142944099</v>
+      </c>
+      <c r="F14">
+        <v>7.6754733355837299</v>
+      </c>
+      <c r="H14">
+        <v>73.478181820000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>0.74683198736593104</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>25.860968943217401</v>
-      </c>
-      <c r="G6">
-        <v>28.8830435587961</v>
-      </c>
-      <c r="H6">
-        <f xml:space="preserve"> -0.3077*B6 + 0.5471/B6</f>
-        <v>0.5027608142291885</v>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>22.624195858075399</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44900</v>
-      </c>
-      <c r="B7">
-        <v>0.66831711482098599</v>
-      </c>
-      <c r="C7">
-        <v>0.392848743</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>22.500662602927601</v>
-      </c>
-      <c r="G7">
-        <v>25.130056785152998</v>
-      </c>
-      <c r="H7">
-        <v>0.587817870121772</v>
-      </c>
-      <c r="J7">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="K7">
-        <v>71.94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44900</v>
-      </c>
-      <c r="B8">
-        <v>0.66831711482098599</v>
-      </c>
-      <c r="C8">
-        <v>0.392848743</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>0.587817870121772</v>
-      </c>
-      <c r="J8">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="K8">
-        <v>71.94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45086</v>
-      </c>
-      <c r="B9">
-        <v>0.64229622161300404</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>38.153849927152002</v>
-      </c>
-      <c r="G9">
-        <v>42.612452449146303</v>
-      </c>
-      <c r="H9">
-        <f xml:space="preserve"> -0.3077*B9 + 0.5471/B9</f>
-        <v>0.65415311940625909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45028</v>
-      </c>
-      <c r="B10">
-        <v>1.14254792657094</v>
-      </c>
-      <c r="C10">
-        <v>8.1843182E-2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>7.0377361900962399</v>
-      </c>
-      <c r="G10">
-        <v>7.8601556415069203</v>
-      </c>
-      <c r="H10">
-        <v>7.1632165353124999E-2</v>
-      </c>
-      <c r="I10">
-        <v>7.8232071474115203</v>
-      </c>
-      <c r="K10">
-        <v>72.604545450000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45028</v>
-      </c>
-      <c r="B11">
-        <v>1.14254792657094</v>
-      </c>
-      <c r="C11">
-        <v>8.1843182E-2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2.8178907957575801</v>
-      </c>
-      <c r="G11">
-        <v>3.1471853501120601</v>
-      </c>
-      <c r="H11">
-        <v>7.1632165353124999E-2</v>
-      </c>
-      <c r="I11">
-        <v>3.13239127164475</v>
-      </c>
-      <c r="K11">
-        <v>72.604545450000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44972</v>
-      </c>
-      <c r="B12">
-        <v>1.91936208989603</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.961013000210583</v>
-      </c>
-      <c r="G12">
-        <v>1.0733155593124599</v>
-      </c>
-      <c r="H12">
-        <v>1.34980617447766E-2</v>
-      </c>
-      <c r="J12">
-        <v>1.288</v>
-      </c>
-      <c r="K12">
-        <v>71.42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44972</v>
-      </c>
-      <c r="B13">
-        <v>1.91936208989603</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1.1813066951665301</v>
-      </c>
-      <c r="G13">
-        <v>1.3193524499297999</v>
-      </c>
-      <c r="H13">
-        <v>1.34980617447766E-2</v>
-      </c>
-      <c r="I13">
-        <v>1.3131505261474601</v>
-      </c>
-      <c r="J13">
-        <v>1.288</v>
-      </c>
-      <c r="K13">
-        <v>71.42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44944</v>
-      </c>
-      <c r="B14">
-        <v>0.77392929096712304</v>
-      </c>
-      <c r="C14">
-        <v>0.41148000000000001</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>17.6374142630861</v>
-      </c>
-      <c r="G14">
-        <v>19.698496430809701</v>
-      </c>
-      <c r="H14">
-        <v>0.53167647846201005</v>
-      </c>
-      <c r="I14">
-        <v>19.6058990558648</v>
-      </c>
-      <c r="J14">
-        <v>1.097</v>
-      </c>
-      <c r="K14">
-        <v>71.486959999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44944</v>
-      </c>
-      <c r="B15">
-        <v>0.77392929096712304</v>
-      </c>
-      <c r="C15">
-        <v>0.41148000000000001</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>21.710515674283599</v>
-      </c>
-      <c r="G15">
-        <v>24.247574454039199</v>
-      </c>
-      <c r="H15">
-        <v>0.53167647846201005</v>
-      </c>
-      <c r="J15">
-        <v>1.097</v>
-      </c>
-      <c r="K15">
-        <v>71.486959999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45064</v>
-      </c>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.634197514012805</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>19.566228974985599</v>
-      </c>
-      <c r="G16">
-        <v>21.852709579704499</v>
-      </c>
-      <c r="H16">
-        <f xml:space="preserve"> -0.3077*B16 + 0.5471/B16</f>
-        <v>0.66752242742036305</v>
-      </c>
-      <c r="I16">
-        <v>21.749985823623899</v>
+        <v>16.1504080056141</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44914</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0.65580679181917101</v>
+        <v>0.81193724612891904</v>
       </c>
       <c r="C17">
-        <v>0.392848743</v>
+        <v>0.26351463400000003</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.32455049359585503</v>
       </c>
       <c r="F17">
-        <v>16.542109995937899</v>
-      </c>
-      <c r="G17">
-        <v>18.4751965255494</v>
-      </c>
-      <c r="H17">
-        <v>0.59903122062865499</v>
-      </c>
-      <c r="I17">
-        <v>18.3883495570071</v>
-      </c>
-      <c r="J17">
-        <v>1.42</v>
-      </c>
-      <c r="K17">
-        <v>71.942899999999995</v>
+        <v>7.76777594040046</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44914</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>0.65580679181917101</v>
+        <v>0.81193724612891904</v>
       </c>
       <c r="C18">
-        <v>0.392848743</v>
+        <v>0.26351463400000003</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0.32455049359585503</v>
       </c>
       <c r="F18">
-        <v>20.131752759396601</v>
-      </c>
-      <c r="G18">
-        <v>22.4843196378791</v>
-      </c>
-      <c r="H18">
-        <v>0.59903122062865499</v>
-      </c>
-      <c r="I18">
-        <v>22.378626851467601</v>
-      </c>
-      <c r="J18">
-        <v>1.42</v>
-      </c>
-      <c r="K18">
-        <v>71.942899999999995</v>
+        <v>11.6535292051355</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44886</v>
-      </c>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19">
+        <v>0.64229622161300404</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>32.6657378105105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.64229622161300404</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>51.880320990253502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
         <v>0.66551573852542301</v>
-      </c>
-      <c r="C19">
-        <v>0.24384</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>9.5512888310983701</v>
-      </c>
-      <c r="G19">
-        <v>10.6674383298237</v>
-      </c>
-      <c r="H19">
-        <v>0.36639253722274701</v>
-      </c>
-      <c r="I19">
-        <v>10.617293548967</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44886</v>
-      </c>
-      <c r="B20">
-        <v>0.66551573852542301</v>
-      </c>
-      <c r="C20">
-        <v>0.24384</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>35.671527165235098</v>
-      </c>
-      <c r="G20">
-        <v>39.840049117435903</v>
-      </c>
-      <c r="H20">
-        <v>0.36639253722274701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>45042</v>
-      </c>
-      <c r="B21">
-        <v>0.76948902444658396</v>
       </c>
       <c r="C21">
         <v>0.24384</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.36639253722274701</v>
       </c>
       <c r="F21">
-        <v>9.3916818333415009</v>
-      </c>
-      <c r="G21">
-        <v>10.489179894162501</v>
-      </c>
-      <c r="H21">
-        <v>0.31688561142944099</v>
-      </c>
-      <c r="I21">
-        <v>10.439873058641499</v>
-      </c>
-      <c r="K21">
-        <v>73.478181820000003</v>
+        <v>8.0612152297113795</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>45014</v>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>1.2579034636172599</v>
+        <v>0.66551573852542301</v>
       </c>
       <c r="C22">
-        <v>0.111489093</v>
+        <v>0.24384</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>3.8437808770156598</v>
-      </c>
-      <c r="G22">
-        <v>4.29295943029343</v>
-      </c>
-      <c r="H22">
-        <v>8.8630881641265993E-2</v>
-      </c>
-      <c r="I22">
-        <v>4.2727793736385298</v>
-      </c>
-      <c r="J22">
-        <v>1.26</v>
+        <v>0.36639253722274701</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>45014</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>1.2579034636172599</v>
+        <v>0.66831711482098599</v>
       </c>
       <c r="C23">
-        <v>0.111489093</v>
+        <v>0.392848743</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0.587817870121772</v>
       </c>
       <c r="F23">
-        <v>3.0187820106694501</v>
+        <v>23.531152831216499</v>
       </c>
       <c r="G23">
-        <v>3.37155241553869</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="H23">
-        <v>8.8630881641265993E-2</v>
-      </c>
-      <c r="I23">
-        <v>3.35570364737181</v>
-      </c>
-      <c r="J23">
-        <v>1.26</v>
+        <v>71.94</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>45075</v>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>0.81193724612891904</v>
+        <v>0.66831711482098599</v>
       </c>
       <c r="C24">
-        <v>0.26351463400000003</v>
+        <v>0.392848743</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0.587817870121772</v>
       </c>
       <c r="F24">
-        <v>9.8843549976432605</v>
+        <v>18.703245444769301</v>
       </c>
       <c r="G24">
-        <v>11.039426116414299</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="H24">
-        <v>0.32455049359585503</v>
-      </c>
-      <c r="I24">
-        <v>10.987532720242299</v>
+        <v>71.94</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>45075</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>0.81193724612891904</v>
+        <v>0.65580679181917101</v>
       </c>
       <c r="C25">
-        <v>0.26351463400000003</v>
+        <v>0.392848743</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0.59903122062865499</v>
       </c>
       <c r="F25">
-        <v>15.6388976758554</v>
+        <v>15.9745813671168</v>
       </c>
       <c r="G25">
-        <v>17.4664361484319</v>
+        <v>1.42</v>
       </c>
       <c r="H25">
-        <v>0.32455049359585503</v>
+        <v>71.942899999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>0.65580679181917101</v>
+      </c>
+      <c r="C26">
+        <v>0.392848743</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>0.59903122062865499</v>
+      </c>
+      <c r="F26">
+        <v>17.496680423021001</v>
+      </c>
+      <c r="G26">
+        <v>1.42</v>
+      </c>
+      <c r="H26">
+        <v>71.942899999999995</v>
       </c>
     </row>
   </sheetData>
@@ -11515,15 +11371,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11548,530 +11404,439 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="B2">
+        <v>0.500234239386116</v>
+      </c>
+      <c r="C2">
+        <v>0.13716</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>0.27419154708066701</v>
+      </c>
+      <c r="G2">
+        <v>6.25</v>
+      </c>
+      <c r="H2">
+        <v>72.545299999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.500234239386116</v>
+      </c>
+      <c r="C3">
+        <v>0.13716</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>0.27419154708066701</v>
+      </c>
+      <c r="F3">
+        <v>20.759702379649699</v>
+      </c>
+      <c r="G3">
+        <v>6.25</v>
+      </c>
+      <c r="H3">
+        <v>72.545299999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
+      <c r="B4">
+        <v>0.49838619196324002</v>
+      </c>
+      <c r="C4">
+        <v>0.195072</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0.39140731253322603</v>
+      </c>
+      <c r="F4">
+        <v>11.7604829329048</v>
+      </c>
+      <c r="G4">
+        <v>4.8</v>
+      </c>
+      <c r="H4">
+        <v>73.188749999999999</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44958</v>
-      </c>
-      <c r="B2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.49838619196324002</v>
+      </c>
+      <c r="C5">
+        <v>0.195072</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0.39140731253322603</v>
+      </c>
+      <c r="F5">
+        <v>11.63069034185</v>
+      </c>
+      <c r="G5">
+        <v>4.8</v>
+      </c>
+      <c r="H5">
+        <v>73.188749999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>0.496481994488156</v>
       </c>
-      <c r="C2">
+      <c r="C6">
         <v>0.18592800000000001</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0.37449092225727298</v>
+      </c>
+      <c r="F6">
+        <v>16.082464877533099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.496481994488156</v>
+      </c>
+      <c r="C7">
+        <v>0.18592800000000001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>0.37449092225727298</v>
+      </c>
+      <c r="F7">
+        <v>19.278549967453198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>18.3835529834389</v>
-      </c>
-      <c r="G2">
-        <v>20.531827819442999</v>
-      </c>
-      <c r="H2">
-        <v>0.37449092225727298</v>
+      <c r="B8">
+        <v>0.49364073113116103</v>
+      </c>
+      <c r="C8">
+        <v>0.176784</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0.35812279832522198</v>
+      </c>
+      <c r="F8">
+        <v>18.3266040851639</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44958</v>
-      </c>
-      <c r="B3">
-        <v>0.496481994488156</v>
-      </c>
-      <c r="C3">
-        <v>0.18592800000000001</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>19.490462348286702</v>
-      </c>
-      <c r="G3">
-        <v>21.768088976971001</v>
-      </c>
-      <c r="H3">
-        <v>0.37449092225727298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44986</v>
-      </c>
-      <c r="B4">
-        <v>0.48014251849385198</v>
-      </c>
-      <c r="C4">
-        <v>0.20116800000000001</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>12.944765175799001</v>
-      </c>
-      <c r="G4">
-        <v>14.457471305577201</v>
-      </c>
-      <c r="H4">
-        <v>0.418975600475957</v>
-      </c>
-      <c r="I4">
-        <v>14.389510591116601</v>
-      </c>
-      <c r="J4">
-        <v>5.58</v>
-      </c>
-      <c r="K4">
-        <v>73.188749999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44986</v>
-      </c>
-      <c r="B5">
-        <v>0.48014251849385198</v>
-      </c>
-      <c r="C5">
-        <v>0.20116800000000001</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>0.418975600475957</v>
-      </c>
-      <c r="J5">
-        <v>5.58</v>
-      </c>
-      <c r="K5">
-        <v>73.188749999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44929</v>
-      </c>
-      <c r="B6">
-        <v>0.500234239386116</v>
-      </c>
-      <c r="C6">
-        <v>0.13716</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>8.2501551734509206</v>
-      </c>
-      <c r="G6">
-        <v>9.2142561156474603</v>
-      </c>
-      <c r="H6">
-        <v>0.27419154708066701</v>
-      </c>
-      <c r="I6">
-        <v>9.1709423565808308</v>
-      </c>
-      <c r="J6">
-        <v>6.25</v>
-      </c>
-      <c r="K6">
-        <v>72.545299999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44929</v>
-      </c>
-      <c r="B7">
-        <v>0.500234239386116</v>
-      </c>
-      <c r="C7">
-        <v>0.13716</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>20.684578889703499</v>
-      </c>
-      <c r="G7">
-        <v>23.101748212854599</v>
-      </c>
-      <c r="H7">
-        <v>0.27419154708066701</v>
-      </c>
-      <c r="J7">
-        <v>6.25</v>
-      </c>
-      <c r="K7">
-        <v>72.545299999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45028</v>
-      </c>
-      <c r="B8">
-        <v>0.44959398748926399</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>32.384918889440698</v>
-      </c>
-      <c r="G8">
-        <v>36.169372655200497</v>
-      </c>
-      <c r="H8">
-        <v>0.31185470424768102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44972</v>
-      </c>
       <c r="B9">
-        <v>0.47622327404387599</v>
+        <v>0.49364073113116103</v>
       </c>
       <c r="C9">
         <v>0.176784</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.35812279832522198</v>
       </c>
       <c r="F9">
-        <v>21.440237333195199</v>
-      </c>
-      <c r="G9">
-        <v>23.9457117854054</v>
-      </c>
-      <c r="H9">
-        <v>0.371220831982505</v>
+        <v>15.8324828082942</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44972</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>0.47622327404387599</v>
+        <v>0.48014251849385198</v>
       </c>
       <c r="C10">
-        <v>0.176784</v>
+        <v>0.20116800000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0.418975600475957</v>
       </c>
       <c r="F10">
-        <v>15.358635006032801</v>
+        <v>12.5427239203201</v>
       </c>
       <c r="G10">
-        <v>17.153422397162</v>
+        <v>5.58</v>
       </c>
       <c r="H10">
-        <v>0.371220831982505</v>
-      </c>
-      <c r="I10">
-        <v>17.072788736066201</v>
+        <v>73.188749999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45000</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
       </c>
       <c r="B11">
+        <v>0.48014251849385198</v>
+      </c>
+      <c r="C11">
+        <v>0.20116800000000001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>0.418975600475957</v>
+      </c>
+      <c r="F11">
+        <v>10.123963721124101</v>
+      </c>
+      <c r="G11">
+        <v>5.58</v>
+      </c>
+      <c r="H11">
+        <v>73.188749999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
         <v>0.48738009477924898</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>0.20319999999999999</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>16.986885643767</v>
-      </c>
-      <c r="G11">
-        <v>18.9719479983324</v>
-      </c>
-      <c r="H11">
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
         <v>0.41692305897727699</v>
       </c>
-      <c r="I11">
-        <v>18.882765933680599</v>
-      </c>
-      <c r="J11">
+      <c r="F12">
+        <v>15.491084387970799</v>
+      </c>
+      <c r="G12">
         <v>4.6849999999999996</v>
       </c>
-      <c r="K11">
+      <c r="H12">
         <v>72.484999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44944</v>
-      </c>
-      <c r="B12">
-        <v>0.49838619196324002</v>
-      </c>
-      <c r="C12">
-        <v>0.195072</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>12.990015824609699</v>
-      </c>
-      <c r="G12">
-        <v>14.508009878340401</v>
-      </c>
-      <c r="H12">
-        <v>0.39140731253322603</v>
-      </c>
-      <c r="I12">
-        <v>14.439811595536</v>
-      </c>
-      <c r="J12">
-        <v>4.8</v>
-      </c>
-      <c r="K12">
-        <v>73.188749999999999</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.46633139234925403</v>
+      </c>
+      <c r="C13">
+        <f xml:space="preserve"> -1.0768*B13+ 0.7138</f>
+        <v>0.21165435671832322</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>0.21787081390374799</v>
+      </c>
+      <c r="F13">
+        <v>28.8790872259084</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44944</v>
-      </c>
-      <c r="B13">
-        <v>0.49838619196324002</v>
-      </c>
-      <c r="C13">
-        <v>0.195072</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>11.6941754858849</v>
-      </c>
-      <c r="G13">
-        <v>13.0607395525141</v>
-      </c>
-      <c r="H13">
-        <v>0.39140731253322603</v>
-      </c>
-      <c r="I13">
-        <v>12.999344501290301</v>
-      </c>
-      <c r="J13">
-        <v>4.8</v>
-      </c>
-      <c r="K13">
-        <v>73.188749999999999</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.44959398748926399</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C17" si="0" xml:space="preserve"> -1.0768*B14+ 0.7138</f>
+        <v>0.22967719427156053</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>0.31185470424768102</v>
+      </c>
+      <c r="F14">
+        <v>31.877696149374302</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45064</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.42847041975631001</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.25242305200640536</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>0.40903640465934199</v>
+      </c>
+      <c r="G15">
+        <v>4.6849999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>0.40867897602588799</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>22.9367084273978</v>
-      </c>
-      <c r="G14">
-        <v>25.6170582803197</v>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.2737344786153238</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <f>C16/B16</f>
+        <v>0.66980318213869638</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44915</v>
-      </c>
-      <c r="B15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.41829191635495</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.26338326446898985</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <f>C17/B17</f>
+        <v>0.62966376870044671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.57001899623787999</v>
+      </c>
+      <c r="C18">
+        <v>9.0498811999999998E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>0.15876455451009799</v>
+      </c>
+      <c r="G18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H18">
+        <v>72.918940000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.55068895347565805</v>
+      </c>
+      <c r="C19">
+        <v>0.132051846</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>0.239793889393565</v>
+      </c>
+      <c r="F19">
+        <v>44.743071696612503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.52913409322569804</v>
+      </c>
+      <c r="C20">
+        <v>0.16555581</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>0.31288063294266599</v>
+      </c>
+      <c r="F20">
+        <v>17.612268500013801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
         <v>0.51433262189204798</v>
       </c>
-      <c r="C15">
+      <c r="C21">
         <v>0.15135790499999999</v>
       </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>10.0134567538949</v>
-      </c>
-      <c r="G15">
-        <v>11.183614513126001</v>
-      </c>
-      <c r="H15">
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
         <v>0.29428019642854403</v>
-      </c>
-      <c r="I15">
-        <v>11.1310433257794</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44858</v>
-      </c>
-      <c r="B16">
-        <v>0.57001899623787999</v>
-      </c>
-      <c r="C16">
-        <v>9.0498811999999998E-2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.42764389326541602</v>
-      </c>
-      <c r="G16">
-        <v>0.47761772669688202</v>
-      </c>
-      <c r="H16">
-        <v>0.15876455451009799</v>
-      </c>
-      <c r="J16">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K16">
-        <v>72.918940000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>45042</v>
-      </c>
-      <c r="B17">
-        <v>0.42847041975631001</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>36.4925093532189</v>
-      </c>
-      <c r="G17">
-        <v>40.756970070730198</v>
-      </c>
-      <c r="H17">
-        <v>0.40903640465934199</v>
-      </c>
-      <c r="J17">
-        <v>4.6849999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45014</v>
-      </c>
-      <c r="B18">
-        <v>0.46633139234925403</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>26.4396363546483</v>
-      </c>
-      <c r="G18">
-        <v>29.529333188821699</v>
-      </c>
-      <c r="H18">
-        <v>0.21787081390374799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45075</v>
-      </c>
-      <c r="B19">
-        <v>0.41829191635495</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>21.364314921365601</v>
-      </c>
-      <c r="G19">
-        <v>23.860917192721001</v>
-      </c>
-      <c r="I19">
-        <v>23.7487533885655</v>
       </c>
     </row>
   </sheetData>
@@ -12083,15 +11848,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12116,451 +11881,300 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44958</v>
-      </c>
       <c r="B2">
-        <v>1.04798446939444</v>
+        <v>0.84629581545158405</v>
       </c>
       <c r="C2">
-        <v>0.27730699199999997</v>
+        <v>0.38927203100000002</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.45997158900317198</v>
       </c>
       <c r="F2">
-        <v>7.1020485700129896</v>
-      </c>
-      <c r="G2">
-        <v>7.9319834711054096</v>
-      </c>
-      <c r="H2">
-        <v>0.26460982972413499</v>
-      </c>
-      <c r="I2">
-        <v>7.8946973335511696</v>
+        <v>7.8958984290259</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44958</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>1.04798446939444</v>
+        <v>0.84629581545158405</v>
       </c>
       <c r="C3">
-        <v>0.27730699199999997</v>
+        <v>0.38927203100000002</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0.45997158900317198</v>
       </c>
       <c r="F3">
-        <v>7.1020485700129896</v>
-      </c>
-      <c r="G3">
-        <v>7.9319834711054096</v>
-      </c>
-      <c r="H3">
-        <v>0.26460982972413499</v>
-      </c>
-      <c r="I3">
-        <v>7.8946973335511696</v>
+        <v>7.8958984290259</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44986</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>2.50503910572627</v>
+        <v>0.89039772710795695</v>
       </c>
       <c r="C4">
-        <v>9.9617103999999998E-2</v>
+        <v>0.24384</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.27385514649953202</v>
       </c>
       <c r="F4">
-        <v>2.8041429963515898</v>
-      </c>
-      <c r="G4">
-        <v>3.13183100318281</v>
-      </c>
-      <c r="H4">
-        <v>3.9766686185570999E-2</v>
-      </c>
-      <c r="I4">
-        <v>3.11710910140292</v>
+        <v>6.2631698085533101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44986</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>2.50503910572627</v>
+        <v>0.89039772710795695</v>
       </c>
       <c r="C5">
-        <v>9.9617103999999998E-2</v>
+        <v>0.24384</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0.27385514649953202</v>
       </c>
       <c r="F5">
-        <v>2.8041429963515898</v>
-      </c>
-      <c r="G5">
-        <v>3.13183100318281</v>
-      </c>
-      <c r="H5">
-        <v>3.9766686185570999E-2</v>
-      </c>
-      <c r="I5">
-        <v>3.11710910140292</v>
+        <v>6.2631698085533101</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44929</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.64382772014720802</v>
+        <v>1.2795322417230099</v>
       </c>
       <c r="C6">
-        <v>0.38927203100000002</v>
+        <v>0.27730699199999997</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.21672528675524499</v>
       </c>
       <c r="F6">
-        <v>12.5794921482648</v>
-      </c>
-      <c r="G6">
-        <v>14.049513011814501</v>
-      </c>
-      <c r="H6">
-        <v>0.60462142094626703</v>
-      </c>
-      <c r="I6">
-        <v>13.983470000424401</v>
+        <v>4.17908012369488</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44929</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.64382772014720802</v>
+        <v>1.2795322417230099</v>
       </c>
       <c r="C7">
-        <v>0.38927203100000002</v>
+        <v>0.27730699199999997</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0.21672528675524499</v>
       </c>
       <c r="F7">
-        <v>12.5794921482648</v>
-      </c>
-      <c r="G7">
-        <v>14.049513011814501</v>
-      </c>
-      <c r="H7">
-        <v>0.60462142094626703</v>
-      </c>
-      <c r="I7">
-        <v>13.983470000424401</v>
+        <v>4.17908012369488</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44900</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.685413690521399</v>
+        <v>1.93587245637372</v>
       </c>
       <c r="C8">
-        <v>0.31575888699999999</v>
+        <v>0.152032679</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>12.751069694285199</v>
-      </c>
-      <c r="G8">
-        <v>14.2411408563203</v>
-      </c>
-      <c r="H8">
-        <v>0.46068365917786103</v>
-      </c>
-      <c r="I8">
-        <v>14.1741970535713</v>
+        <v>7.8534450190374402E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44900</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.685413690521399</v>
+        <v>1.93587245637372</v>
       </c>
       <c r="C9">
-        <v>0.31575888699999999</v>
+        <v>0.152032679</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>12.751069694285199</v>
-      </c>
-      <c r="G9">
-        <v>14.2411408563203</v>
-      </c>
-      <c r="H9">
-        <v>0.46068365917786103</v>
-      </c>
-      <c r="I9">
-        <v>14.1741970535713</v>
+        <v>7.8534450190374402E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45028</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>1.33812941667773</v>
+        <v>2.4780665467373599</v>
       </c>
       <c r="C10">
-        <v>0.217546613</v>
+        <v>9.9617103999999998E-2</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>4.0199527382005301E-2</v>
       </c>
       <c r="F10">
-        <v>17.203843649051301</v>
-      </c>
-      <c r="G10">
-        <v>19.2142593955123</v>
-      </c>
-      <c r="H10">
-        <v>0.16257516671303601</v>
+        <v>1.91650182628218</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44972</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>1.8335544902860199</v>
+        <v>2.4780665467373599</v>
       </c>
       <c r="C11">
-        <v>0.152032679</v>
+        <v>9.9617103999999998E-2</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>4.0199527382005301E-2</v>
       </c>
       <c r="F11">
-        <v>12.0214269398921</v>
-      </c>
-      <c r="G11">
-        <v>13.4262331278525</v>
-      </c>
-      <c r="H11">
-        <v>8.2916913462596095E-2</v>
-      </c>
-      <c r="I11">
-        <v>13.363119988867201</v>
+        <v>1.91650182628218</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44972</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>1.8335544902860199</v>
+        <v>1.77503019033284</v>
       </c>
       <c r="C12">
-        <v>0.152032679</v>
+        <v>0.20904352600000001</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0.117768997473109</v>
       </c>
       <c r="F12">
-        <v>12.0214269398921</v>
-      </c>
-      <c r="G12">
-        <v>13.4262331278525</v>
-      </c>
-      <c r="H12">
-        <v>8.2916913462596095E-2</v>
-      </c>
-      <c r="I12">
-        <v>13.363119988867201</v>
+        <v>4.44794425583971</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45000</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>1.6718476284946899</v>
+        <v>1.7075802077995601</v>
       </c>
       <c r="C13">
-        <v>0.20904352600000001</v>
+        <v>0.14364185700000001</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>6.0054468008263999</v>
-      </c>
-      <c r="G13">
-        <v>6.7072344396358803</v>
-      </c>
-      <c r="H13">
-        <v>0.12503742711781701</v>
-      </c>
-      <c r="I13">
-        <v>6.6757055204398403</v>
+        <v>8.4120122934137995E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44944</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>0.60665795901629205</v>
+        <v>1.4922591097125699</v>
       </c>
       <c r="C14">
-        <v>0.24384</v>
+        <v>0.217546613</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>12.8188177013631</v>
-      </c>
-      <c r="G14">
-        <v>14.316805795393099</v>
-      </c>
-      <c r="H14">
-        <v>0.40193983508498099</v>
-      </c>
-      <c r="I14">
-        <v>14.2495063119576</v>
+        <v>0.14578340422522401</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44944</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>0.60665795901629205</v>
+        <v>1.11609574558469</v>
       </c>
       <c r="C15">
-        <v>0.24384</v>
+        <v>0.29169342100000001</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0.26135161087563402</v>
       </c>
       <c r="F15">
-        <v>12.8188177013631</v>
-      </c>
-      <c r="G15">
-        <v>14.316805795393099</v>
-      </c>
-      <c r="H15">
-        <v>0.40193983508498099</v>
-      </c>
-      <c r="I15">
-        <v>14.2495063119576</v>
+        <v>8.5316662064735205</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44886</v>
-      </c>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>0.79626054252764999</v>
-      </c>
-      <c r="C16">
-        <v>0.245749827</v>
+        <v>1.00713808149247</v>
+      </c>
+      <c r="C16" s="1">
+        <f xml:space="preserve"> -0.132*B16 + 0.4181</f>
+        <v>0.28515777324299396</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <f>C16/B16</f>
+        <v>0.28313672026026554</v>
       </c>
       <c r="F16">
-        <v>26.130012316136899</v>
-      </c>
-      <c r="G16">
-        <v>29.183526942705701</v>
-      </c>
-      <c r="H16">
-        <v>0.308629919322502</v>
+        <v>9.3052048733349402</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44886</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>0.79626054252764999</v>
+        <v>0.99935539120017003</v>
       </c>
       <c r="C17">
         <v>0.245749827</v>
@@ -12569,98 +12183,104 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>26.130012316136899</v>
-      </c>
-      <c r="G17">
-        <v>29.183526942705701</v>
-      </c>
-      <c r="H17">
-        <v>0.308629919322502</v>
+        <v>0.24590834168099901</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45042</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.82599635143238004</v>
+        <v>0.99935539120017003</v>
       </c>
       <c r="C18">
-        <v>0.29169342100000001</v>
+        <v>0.245749827</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>14.741803563179401</v>
-      </c>
-      <c r="G18">
-        <v>16.464508943397401</v>
-      </c>
-      <c r="H18">
-        <v>0.35314129474563299</v>
-      </c>
-      <c r="I18">
-        <v>16.3871136806031</v>
+        <v>0.24590834168099901</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45014</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>1.56828752173985</v>
+        <v>0.94487655915406399</v>
       </c>
       <c r="C19">
-        <v>0.14364185700000001</v>
+        <v>0.31575888699999999</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.33418004070573498</v>
       </c>
       <c r="F19">
-        <v>9.5266576446748807</v>
-      </c>
-      <c r="G19">
-        <v>10.6399287793526</v>
-      </c>
-      <c r="H19">
-        <v>9.1591532170481604E-2</v>
-      </c>
-      <c r="I19">
-        <v>10.5899133135515</v>
+        <v>7.0638592430665703</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>45075</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>0.608792460150545</v>
+        <v>0.94487655915406399</v>
+      </c>
+      <c r="C20">
+        <v>0.31575888699999999</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.33418004070573498</v>
       </c>
       <c r="F20">
-        <v>19.4413921218299</v>
-      </c>
-      <c r="G20">
-        <v>21.713284476362201</v>
-      </c>
-      <c r="H20">
-        <f>-0.1172*B2+0.38</f>
-        <v>0.25717622018697162</v>
+        <v>7.0638592430665703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.87483234652335495</v>
+      </c>
+      <c r="C21">
+        <v>0.27092143800000001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>0.30968383722511</v>
+      </c>
+      <c r="F21">
+        <v>8.2264856374067996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>0.87483234652335495</v>
+      </c>
+      <c r="C22">
+        <v>0.27092143800000001</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>0.30968383722511</v>
+      </c>
+      <c r="F22">
+        <v>8.2264856374067996</v>
       </c>
     </row>
   </sheetData>
@@ -12672,15 +12292,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12705,217 +12325,154 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45049</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>0.20547930573848</v>
+        <v>0.27582680972963097</v>
       </c>
       <c r="C2">
-        <v>0.10404495</v>
+        <v>9.9059999999999995E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.359138403178066</v>
       </c>
       <c r="F2">
-        <v>40.965890377359102</v>
+        <v>24.690084932127998</v>
       </c>
       <c r="G2">
-        <v>45.753103790971998</v>
+        <v>1.76</v>
       </c>
       <c r="H2">
-        <v>0.50635245055977096</v>
-      </c>
-      <c r="I2">
-        <v>45.538030659806502</v>
-      </c>
-      <c r="K2">
-        <v>72.669256200000007</v>
+        <v>74.42</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45049</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>0.20547930573848</v>
+        <v>0.27582680972963097</v>
       </c>
       <c r="C3">
-        <v>0.10404495</v>
+        <v>9.9059999999999995E-2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0.359138403178066</v>
       </c>
       <c r="F3">
-        <v>40.965890377359102</v>
+        <v>24.690084932127998</v>
       </c>
       <c r="G3">
-        <v>45.753103790971998</v>
+        <v>1.76</v>
       </c>
       <c r="H3">
-        <v>0.50635245055977096</v>
-      </c>
-      <c r="I3">
-        <v>45.538030659806502</v>
-      </c>
-      <c r="K3">
-        <v>72.669256200000007</v>
+        <v>74.42</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44930</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>0.27582680972963097</v>
+        <v>0.14842325926962999</v>
       </c>
       <c r="C4">
-        <v>9.9059999999999995E-2</v>
+        <v>0.103632</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.69821940651323</v>
       </c>
       <c r="F4">
-        <v>20.419109876651302</v>
+        <v>118.259222088889</v>
       </c>
       <c r="G4">
-        <v>22.805256883224502</v>
+        <v>1.83</v>
       </c>
       <c r="H4">
-        <v>0.359138403178066</v>
-      </c>
-      <c r="I4">
-        <v>22.698055456468499</v>
-      </c>
-      <c r="J4">
-        <v>1.76</v>
-      </c>
-      <c r="K4">
-        <v>74.42</v>
+        <v>73.290000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44930</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>0.27582680972963097</v>
+        <v>0.14842325926962999</v>
       </c>
       <c r="C5">
-        <v>9.9059999999999995E-2</v>
+        <v>0.103632</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0.69821940651323</v>
       </c>
       <c r="F5">
-        <v>20.419109876651302</v>
+        <v>118.259222088889</v>
       </c>
       <c r="G5">
-        <v>22.805256883224502</v>
+        <v>1.83</v>
       </c>
       <c r="H5">
-        <v>0.359138403178066</v>
-      </c>
-      <c r="I5">
-        <v>22.698055456468499</v>
-      </c>
-      <c r="J5">
-        <v>1.76</v>
-      </c>
-      <c r="K5">
-        <v>74.42</v>
+        <v>73.290000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45021</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>0.50655758454314603</v>
+        <v>0.13941805406320101</v>
+      </c>
+      <c r="C6">
+        <v>0.100003886</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.71729509260447999</v>
       </c>
       <c r="F6">
-        <v>12.8732908041182</v>
-      </c>
-      <c r="G6">
-        <v>14.3776445444405</v>
-      </c>
-      <c r="H6">
-        <v>0.24827177765667799</v>
-      </c>
-      <c r="I6">
-        <v>14.3100590742813</v>
-      </c>
-      <c r="J6">
-        <v>1.53</v>
-      </c>
-      <c r="K6">
-        <v>71.739999999999995</v>
+        <v>50.954752325421801</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45021</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>0.50655758454314603</v>
+        <v>0.13941805406320101</v>
+      </c>
+      <c r="C7">
+        <v>0.100003886</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0.71729509260447999</v>
       </c>
       <c r="F7">
-        <v>12.8732908041182</v>
-      </c>
-      <c r="G7">
-        <v>14.3776445444405</v>
-      </c>
-      <c r="H7">
-        <v>0.24827177765667799</v>
-      </c>
-      <c r="I7">
-        <v>14.3100590742813</v>
-      </c>
-      <c r="J7">
-        <v>1.53</v>
-      </c>
-      <c r="K7">
-        <v>71.739999999999995</v>
+        <v>50.954752325421801</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44963</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
       </c>
       <c r="B8">
         <v>0.35708644464821998</v>
@@ -12924,27 +12481,18 @@
         <v>6.8341643999999993E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.19138683370444401</v>
       </c>
       <c r="F8">
-        <v>6.3019032684893004</v>
-      </c>
-      <c r="G8">
-        <v>7.0383343720318701</v>
-      </c>
-      <c r="H8">
-        <v>0.19138683370444401</v>
-      </c>
-      <c r="I8">
-        <v>7.0052490404115701</v>
+        <v>9.73092604234097</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44963</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
       </c>
       <c r="B9">
         <v>0.35708644464821998</v>
@@ -12953,537 +12501,423 @@
         <v>6.8341643999999993E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0.19138683370444401</v>
       </c>
       <c r="F9">
-        <v>6.3019032684893004</v>
-      </c>
-      <c r="G9">
-        <v>7.0383343720318701</v>
-      </c>
-      <c r="H9">
-        <v>0.19138683370444401</v>
-      </c>
-      <c r="I9">
-        <v>7.0052490404115701</v>
+        <v>9.73092604234097</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44993</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
       </c>
       <c r="B10">
+        <v>0.97908907233996301</v>
+      </c>
+      <c r="C10">
+        <v>7.7164556999999995E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>7.8812601610986702E-2</v>
+      </c>
+      <c r="F10">
+        <v>12.1601192837523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>0.97908907233996301</v>
+      </c>
+      <c r="C11">
+        <v>7.7164556999999995E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>7.8812601610986702E-2</v>
+      </c>
+      <c r="F11">
+        <v>12.1601192837523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
         <v>0.73912910715284497</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>4.8770678662322897</v>
-      </c>
-      <c r="G10">
-        <v>5.4469948101668697</v>
-      </c>
-      <c r="H10">
+      <c r="C12">
+        <v>5.9129280999999999E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
         <v>7.9998582693852197E-2</v>
       </c>
-      <c r="I10">
-        <v>5.4213899411591502</v>
-      </c>
-      <c r="J10">
+      <c r="F12">
+        <v>7.9516472320781002</v>
+      </c>
+      <c r="G12">
         <v>1.93</v>
       </c>
-      <c r="K10">
+      <c r="H12">
         <v>74.42</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44993</v>
-      </c>
-      <c r="B11">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
         <v>0.73912910715284497</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>4.8770678662322897</v>
-      </c>
-      <c r="G11">
-        <v>5.4469948101668697</v>
-      </c>
-      <c r="H11">
+      <c r="C13">
+        <v>5.9129280999999999E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
         <v>7.9998582693852197E-2</v>
       </c>
-      <c r="I11">
-        <v>5.4213899411591502</v>
-      </c>
-      <c r="J11">
+      <c r="F13">
+        <v>7.9516472320781002</v>
+      </c>
+      <c r="G13">
         <v>1.93</v>
       </c>
-      <c r="K11">
+      <c r="H13">
         <v>74.42</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44937</v>
-      </c>
-      <c r="B12">
-        <v>0.14842325926962999</v>
-      </c>
-      <c r="C12">
-        <v>0.103632</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>123.412782377615</v>
-      </c>
-      <c r="G12">
-        <v>137.83461775742001</v>
-      </c>
-      <c r="H12">
-        <v>0.69821940651323</v>
-      </c>
-      <c r="J12">
-        <v>1.83</v>
-      </c>
-      <c r="K12">
-        <v>73.290000000000006</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.50655758454314603</v>
+      </c>
+      <c r="C14">
+        <v>0.12576395200000001</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>0.24827177765667799</v>
+      </c>
+      <c r="F14">
+        <v>30.7702058957052</v>
+      </c>
+      <c r="G14">
+        <v>1.53</v>
+      </c>
+      <c r="H14">
+        <v>71.739999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44937</v>
-      </c>
-      <c r="B13">
-        <v>0.14842325926962999</v>
-      </c>
-      <c r="C13">
-        <v>0.103632</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>123.412782377615</v>
-      </c>
-      <c r="G13">
-        <v>137.83461775742001</v>
-      </c>
-      <c r="H13">
-        <v>0.69821940651323</v>
-      </c>
-      <c r="J13">
-        <v>1.83</v>
-      </c>
-      <c r="K13">
-        <v>73.290000000000006</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>0.50655758454314603</v>
+      </c>
+      <c r="C15">
+        <v>0.12576395200000001</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>0.24827177765667799</v>
+      </c>
+      <c r="F15">
+        <v>30.7702058957052</v>
+      </c>
+      <c r="G15">
+        <v>1.53</v>
+      </c>
+      <c r="H15">
+        <v>71.739999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45089</v>
-      </c>
-      <c r="B14">
-        <v>0.30718976746298698</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>13.962415345352101</v>
-      </c>
-      <c r="G14">
-        <v>15.594042570148</v>
-      </c>
-      <c r="I14">
-        <v>15.520739137480099</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>0.26422745354100802</v>
+      </c>
+      <c r="C16">
+        <v>9.0472021999999999E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>0.34240205091314901</v>
+      </c>
+      <c r="F16">
+        <v>34.983383524448797</v>
+      </c>
+      <c r="G16">
+        <v>1.704</v>
+      </c>
+      <c r="H16">
+        <v>73.278000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44907</v>
-      </c>
-      <c r="B15">
-        <v>0.16056832408994501</v>
-      </c>
-      <c r="C15">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1.45296403460818</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>0.26422745354100802</v>
+      </c>
+      <c r="C17">
+        <v>9.0472021999999999E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>0.34240205091314901</v>
+      </c>
+      <c r="F17">
+        <v>34.983383524448797</v>
+      </c>
+      <c r="G17">
+        <v>1.704</v>
+      </c>
+      <c r="H17">
+        <v>73.278000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44907</v>
-      </c>
-      <c r="B16">
-        <v>0.16056832408994501</v>
-      </c>
-      <c r="C16">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>1.45296403460818</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>0.20547930573848</v>
+      </c>
+      <c r="C18">
+        <v>0.10404495</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>0.50635245055977096</v>
+      </c>
+      <c r="F18">
+        <v>53.152789367811998</v>
+      </c>
+      <c r="H18">
+        <v>72.669256200000007</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44879</v>
-      </c>
-      <c r="B17">
-        <v>0.23799883780685399</v>
-      </c>
-      <c r="C17">
-        <v>0.23090909100000001</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>80.084133225214302</v>
-      </c>
-      <c r="G17">
-        <v>89.442646692437606</v>
-      </c>
-      <c r="H17">
-        <v>0.97021100240578795</v>
-      </c>
-      <c r="I17">
-        <v>89.022200679162594</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>0.20547930573848</v>
+      </c>
+      <c r="C19">
+        <v>0.10404495</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>0.50635245055977096</v>
+      </c>
+      <c r="F19">
+        <v>53.152789367811998</v>
+      </c>
+      <c r="H19">
+        <v>72.669256200000007</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44879</v>
-      </c>
-      <c r="B18">
-        <v>0.23799883780685399</v>
-      </c>
-      <c r="C18">
-        <v>0.23090909100000001</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>80.084133225214302</v>
-      </c>
-      <c r="G18">
-        <v>89.442646692437606</v>
-      </c>
-      <c r="H18">
-        <v>0.97021100240578795</v>
-      </c>
-      <c r="I18">
-        <v>89.022200679162594</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45063</v>
-      </c>
-      <c r="B19">
-        <v>0.168078940883987</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>39.822312210847997</v>
-      </c>
-      <c r="G19">
-        <v>44.4758887698043</v>
-      </c>
-      <c r="H19">
-        <v>0.32164483971442398</v>
-      </c>
-      <c r="I19">
-        <v>44.266819485613397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>45063</v>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
       </c>
       <c r="B20">
         <v>0.168078940883987</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0.32164483971442398</v>
       </c>
       <c r="F20">
-        <v>39.822312210847997</v>
-      </c>
-      <c r="G20">
-        <v>44.4758887698043</v>
-      </c>
-      <c r="H20">
+        <v>33.341043343649702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>0.168078940883987</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
         <v>0.32164483971442398</v>
       </c>
-      <c r="I20">
-        <v>44.266819485613397</v>
+      <c r="F21">
+        <v>33.341043343649702</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>45035</v>
-      </c>
-      <c r="B21">
-        <v>0.26422745354100802</v>
-      </c>
-      <c r="C21">
-        <v>9.0472021999999999E-2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>25.220326819259199</v>
-      </c>
-      <c r="G21">
-        <v>28.167536942918201</v>
-      </c>
-      <c r="H21">
-        <v>0.34240205091314901</v>
-      </c>
-      <c r="I21">
-        <v>28.0351288685893</v>
-      </c>
-      <c r="J21">
-        <v>1.704</v>
-      </c>
-      <c r="K21">
-        <v>73.278000000000006</v>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>0.25776243935158599</v>
+      </c>
+      <c r="C22">
+        <v>0.142205108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>0.55169057352857198</v>
+      </c>
+      <c r="F22">
+        <v>31.9180285667398</v>
+      </c>
+      <c r="G22">
+        <v>1.628292683</v>
+      </c>
+      <c r="H22">
+        <v>73.679374999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>45035</v>
-      </c>
-      <c r="B22">
-        <v>0.26422745354100802</v>
-      </c>
-      <c r="C22">
-        <v>9.0472021999999999E-2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>25.220326819259199</v>
-      </c>
-      <c r="G22">
-        <v>28.167536942918201</v>
-      </c>
-      <c r="H22">
-        <v>0.34240205091314901</v>
-      </c>
-      <c r="I22">
-        <v>28.0351288685893</v>
-      </c>
-      <c r="J22">
-        <v>1.704</v>
-      </c>
-      <c r="K22">
-        <v>73.278000000000006</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.30718976746298698</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>15.8650769934215</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>44979</v>
-      </c>
-      <c r="B23">
-        <v>0.97908907233996301</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>4.99270427132336</v>
-      </c>
-      <c r="G23">
-        <v>5.5761443146793201</v>
-      </c>
-      <c r="H23">
-        <v>7.8812601610986702E-2</v>
-      </c>
-      <c r="I23">
-        <v>5.5499323483159504</v>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>0.24912069961521999</v>
+      </c>
+      <c r="C24">
+        <v>0.11911748799999999</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>0.47815170792303902</v>
+      </c>
+      <c r="F24">
+        <v>26.1959995510725</v>
+      </c>
+      <c r="G24">
+        <v>1.78</v>
+      </c>
+      <c r="H24">
+        <v>73.430000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>44979</v>
-      </c>
-      <c r="B24">
-        <v>0.97908907233996301</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>4.99270427132336</v>
-      </c>
-      <c r="G24">
-        <v>5.5761443146793201</v>
-      </c>
-      <c r="H24">
-        <v>7.8812601610986702E-2</v>
-      </c>
-      <c r="I24">
-        <v>5.5499323483159504</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>0.24912069961521999</v>
+      </c>
+      <c r="C25">
+        <v>0.11911748799999999</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>0.47815170792303902</v>
+      </c>
+      <c r="F25">
+        <v>26.1959995510725</v>
+      </c>
+      <c r="G25">
+        <v>1.78</v>
+      </c>
+      <c r="H25">
+        <v>73.430000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>44951</v>
-      </c>
-      <c r="B25">
-        <v>0.13941805406320101</v>
-      </c>
-      <c r="C25">
-        <v>0.100003886</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>43.723509422102602</v>
-      </c>
-      <c r="G25">
-        <v>48.832974122310901</v>
-      </c>
-      <c r="H25">
-        <v>0.71729509260447999</v>
-      </c>
-      <c r="I25">
-        <v>48.603423342617504</v>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>0.23799883780685399</v>
+      </c>
+      <c r="C26">
+        <v>0.23090909100000001</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>0.97021100240578795</v>
+      </c>
+      <c r="F26">
+        <v>94.218748150536896</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44951</v>
-      </c>
-      <c r="B26">
-        <v>0.13941805406320101</v>
-      </c>
-      <c r="C26">
-        <v>0.100003886</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>43.723509422102602</v>
-      </c>
-      <c r="G26">
-        <v>48.832974122310901</v>
-      </c>
-      <c r="H26">
-        <v>0.71729509260447999</v>
-      </c>
-      <c r="I26">
-        <v>48.603423342617504</v>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>0.23799883780685399</v>
+      </c>
+      <c r="C27">
+        <v>0.23090909100000001</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>0.97021100240578795</v>
+      </c>
+      <c r="F27">
+        <v>94.218748150536896</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>44893</v>
-      </c>
-      <c r="B27">
-        <v>0.26752308407063402</v>
-      </c>
-      <c r="C27">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>77.4857886019267</v>
-      </c>
-      <c r="G27">
-        <v>86.540663356083797</v>
-      </c>
-      <c r="H27">
-        <v>0.87207427654505298</v>
-      </c>
-      <c r="I27">
-        <v>86.133858792044506</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>44893</v>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
       </c>
       <c r="B28">
         <v>0.26752308407063402</v>
@@ -13492,127 +12926,61 @@
         <v>0.23330000000000001</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0.87207427654505298</v>
       </c>
       <c r="F28">
-        <v>77.4857886019267</v>
-      </c>
-      <c r="G28">
-        <v>86.540663356083797</v>
-      </c>
-      <c r="H28">
+        <v>115.910838296351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>0.26752308407063402</v>
+      </c>
+      <c r="C29">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29">
         <v>0.87207427654505298</v>
       </c>
-      <c r="I28">
-        <v>86.133858792044506</v>
+      <c r="F29">
+        <v>115.910838296351</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>45076</v>
-      </c>
-      <c r="B29">
-        <v>0.25776243935158599</v>
-      </c>
-      <c r="C29">
-        <v>0.142205108</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>31.440269684333899</v>
-      </c>
-      <c r="G29">
-        <v>35.114333139906499</v>
-      </c>
-      <c r="H29">
-        <v>0.55169057352857198</v>
-      </c>
-      <c r="I29">
-        <v>34.949270030490098</v>
-      </c>
-      <c r="J29">
-        <v>1.628292683</v>
-      </c>
-      <c r="K29">
-        <v>73.679374999999993</v>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>1.45296403460818</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>44865</v>
-      </c>
-      <c r="B30">
-        <v>0.24912069961521999</v>
-      </c>
-      <c r="C30">
-        <v>0.11911748799999999</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>22.863987253168499</v>
-      </c>
-      <c r="G30">
-        <v>25.535839017131</v>
-      </c>
-      <c r="H30">
-        <v>0.47815170792303902</v>
-      </c>
-      <c r="I30">
-        <v>25.415801852451601</v>
-      </c>
-      <c r="J30">
-        <v>1.78</v>
-      </c>
-      <c r="K30">
-        <v>73.430000000000007</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>44865</v>
-      </c>
-      <c r="B31">
-        <v>0.24912069961521999</v>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>0.11911748799999999</v>
+        <v>0.23330000000000001</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>22.863987253168499</v>
-      </c>
-      <c r="G31">
-        <v>25.535839017131</v>
-      </c>
-      <c r="H31">
-        <v>0.47815170792303902</v>
-      </c>
-      <c r="I31">
-        <v>25.415801852451601</v>
-      </c>
-      <c r="J31">
-        <v>1.78</v>
-      </c>
-      <c r="K31">
-        <v>73.430000000000007</v>
+        <v>1.45296403460818</v>
       </c>
     </row>
   </sheetData>
@@ -13624,15 +12992,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13657,77 +13025,50 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45049</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>0.73759563320647703</v>
+        <v>0.74411257103448103</v>
       </c>
       <c r="C2">
-        <v>0.137964795</v>
+        <v>0.116835492</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.157013194707318</v>
       </c>
       <c r="F2">
-        <v>4.7217681638546303</v>
-      </c>
-      <c r="G2">
-        <v>5.2735470140579697</v>
-      </c>
-      <c r="H2">
-        <v>0.18704665373388801</v>
-      </c>
-      <c r="I2">
-        <v>5.24875747685316</v>
+        <v>12.0270837749951</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45021</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>1.0535668624027901</v>
+        <v>0.74411257103448103</v>
       </c>
       <c r="C3">
-        <v>5.4257143000000001E-2</v>
+        <v>0.116835492</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.157013194707318</v>
       </c>
       <c r="F3">
-        <v>4.4268193471909898</v>
-      </c>
-      <c r="G3">
-        <v>4.9441309145291203</v>
-      </c>
-      <c r="H3">
-        <v>5.1498528414475699E-2</v>
-      </c>
-      <c r="I3">
-        <v>4.9208898744996201</v>
+        <v>4.8225004830932496</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44963</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
       </c>
       <c r="B4">
         <v>0.87528110109794</v>
@@ -13736,24 +13077,18 @@
         <v>8.9573877999999996E-2</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.10233726957847</v>
       </c>
       <c r="F4">
-        <v>2.6076280564555598</v>
-      </c>
-      <c r="G4">
-        <v>2.9123516178034801</v>
-      </c>
-      <c r="H4">
-        <v>0.10233726957847</v>
+        <v>2.0901187683293201</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44963</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
       </c>
       <c r="B5">
         <v>0.87528110109794</v>
@@ -13762,281 +13097,185 @@
         <v>8.9573877999999996E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0.10233726957847</v>
       </c>
       <c r="F5">
-        <v>4.3033076787754396</v>
-      </c>
-      <c r="G5">
-        <v>4.8061858550574996</v>
-      </c>
-      <c r="H5">
-        <v>0.10233726957847</v>
-      </c>
-      <c r="I5">
-        <v>4.7835932579403098</v>
+        <v>3.4348545944842801</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44993</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
       </c>
       <c r="B6">
+        <v>1.62598028208757</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>2.48222431997649E-2</v>
+      </c>
+      <c r="F6">
+        <v>11.4435970636991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>1.62598028208757</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>2.48222431997649E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.2429283117314203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
         <v>1.32277923770115</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>3.2272940999999999E-2</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>5.10737083458661</v>
-      </c>
-      <c r="G6">
-        <v>5.70421064308107</v>
-      </c>
-      <c r="H6">
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8">
         <v>2.4397828511496002E-2</v>
       </c>
-      <c r="I6">
-        <v>5.6773966710839003</v>
+      <c r="F8">
+        <v>8.1503583923791698</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44993</v>
-      </c>
-      <c r="B7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
         <v>1.32277923770115</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>3.2272940999999999E-2</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>4.6709881571807497</v>
-      </c>
-      <c r="G7">
-        <v>5.2168329308425196</v>
-      </c>
-      <c r="H7">
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
         <v>2.4397828511496002E-2</v>
       </c>
-      <c r="I7">
-        <v>5.1923099914080897</v>
+      <c r="F9">
+        <v>22.095712310493202</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45063</v>
-      </c>
-      <c r="B8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>1.0535668624027901</v>
+      </c>
+      <c r="C10">
+        <v>5.4257143000000001E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>5.1498528414475699E-2</v>
+      </c>
+      <c r="F10">
+        <v>5.8251150947610704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.78894922945176305</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11">
+        <v>6.4381260228580199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>0.73759563320647703</v>
+      </c>
+      <c r="C12">
+        <v>0.137964795</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>0.18704665373388801</v>
+      </c>
+      <c r="F12">
+        <v>5.5662125718823496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
         <v>0.73062868871751996</v>
       </c>
-      <c r="C8">
+      <c r="C13">
         <v>0.14825882000000001</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>4.3858083667105898</v>
-      </c>
-      <c r="G8">
-        <v>4.8983274514722996</v>
-      </c>
-      <c r="H8">
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
         <v>0.202919516150181</v>
       </c>
-      <c r="I8">
-        <v>4.8753017212994401</v>
+      <c r="F13">
+        <v>5.1949848895037301</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45035</v>
-      </c>
-      <c r="B9">
-        <v>0.78894922945176305</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>6.4054284447746497</v>
-      </c>
-      <c r="G9">
-        <v>7.1539573474372897</v>
-      </c>
-      <c r="I9">
-        <v>7.1203285030649601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44979</v>
-      </c>
-      <c r="B10">
-        <v>1.62598028208757</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>14.2207825734894</v>
-      </c>
-      <c r="G10">
-        <v>15.882602210772401</v>
-      </c>
-      <c r="H10">
-        <v>2.48222431997649E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44979</v>
-      </c>
-      <c r="B11">
-        <v>1.62598028208757</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>6.7401494034049501</v>
-      </c>
-      <c r="G11">
-        <v>7.5277933026711503</v>
-      </c>
-      <c r="H11">
-        <v>2.48222431997649E-2</v>
-      </c>
-      <c r="I11">
-        <v>7.49240715523581</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44951</v>
-      </c>
-      <c r="B12">
-        <v>0.74411257103448103</v>
-      </c>
-      <c r="C12">
-        <v>0.116835492</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>11.486092370435401</v>
-      </c>
-      <c r="G12">
-        <v>12.828340151680599</v>
-      </c>
-      <c r="H12">
-        <v>0.157013194707318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44951</v>
-      </c>
-      <c r="B13">
-        <v>0.74411257103448103</v>
-      </c>
-      <c r="C13">
-        <v>0.116835492</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>4.2938214192811701</v>
-      </c>
-      <c r="G13">
-        <v>4.7955910452967103</v>
-      </c>
-      <c r="H13">
-        <v>0.157013194707318</v>
-      </c>
-      <c r="I13">
-        <v>4.7730482515528498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44865</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
       </c>
       <c r="B14">
         <v>0.74233596483651698</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>21.509093302340201</v>
-      </c>
-      <c r="G14">
-        <v>24.0226141613552</v>
-      </c>
-      <c r="H14">
         <v>1.6423830418461599E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44865</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
       </c>
       <c r="B15">
         <v>0.74233596483651698</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>22.034784711330701</v>
-      </c>
-      <c r="G15">
-        <v>24.609737091578602</v>
-      </c>
-      <c r="H15">
         <v>1.6423830418461599E-2</v>
       </c>
     </row>

--- a/04_Outputs/rC_k600_edited.xlsx
+++ b/04_Outputs/rC_k600_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SpringMetabolism_FlowReversals\04_Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\SpringMetabolism_FlowReversals\04_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F362542-A730-4323-83A0-68BAEB3E0194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8023056E-2C93-4EE8-80E9-2D5BA108008A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="-40" windowWidth="19280" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AM" sheetId="1" r:id="rId1"/>
@@ -272,11 +272,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AM!$F$1</c:f>
+              <c:f>AM!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>k600_1d</c:v>
+                  <c:v>u</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -319,153 +319,156 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>AM!$E$2:$E$26</c:f>
+              <c:f>AM!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.62006974316123398</c:v>
+                  <c:v>0.66360277136277601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62006974316123398</c:v>
+                  <c:v>0.66360277136277601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48697835389441602</c:v>
+                  <c:v>0.84496568832957797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48697835389441602</c:v>
+                  <c:v>0.84496568832957797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.38997690585983E-2</c:v>
+                  <c:v>1.79712100240526</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.38997690585983E-2</c:v>
+                  <c:v>1.79712100240526</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.34980617447766E-2</c:v>
+                  <c:v>1.91936208989603</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.34980617447766E-2</c:v>
+                  <c:v>1.91936208989603</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.25645899931604E-2</c:v>
+                  <c:v>1.5364118092654899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.25645899931604E-2</c:v>
+                  <c:v>1.5364118092654899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.1632165353124999E-2</c:v>
+                  <c:v>1.14254792657094</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.1632165353124999E-2</c:v>
+                  <c:v>1.14254792657094</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.31688561142944099</c:v>
+                  <c:v>0.76948902444658396</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.74683198736593104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.634197514012805</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.32455049359585503</c:v>
+                  <c:v>0.81193724612891904</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.32455049359585503</c:v>
+                  <c:v>0.81193724612891904</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64229622161300404</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64229622161300404</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.36639253722274701</c:v>
+                  <c:v>0.66551573852542301</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.36639253722274701</c:v>
+                  <c:v>0.66551573852542301</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.587817870121772</c:v>
+                  <c:v>0.66831711482098599</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.587817870121772</c:v>
+                  <c:v>0.66831711482098599</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.59903122062865499</c:v>
+                  <c:v>0.65580679181917101</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.59903122062865499</c:v>
+                  <c:v>0.65580679181917101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AM!$F$2:$F$26</c:f>
+              <c:f>AM!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>8.7000179355782503</c:v>
+                  <c:v>0.41148000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0537866274825</c:v>
+                  <c:v>0.41148000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.2509884099436</c:v>
+                  <c:v>0.41148000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.9748429691486</c:v>
+                  <c:v>0.41148000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3659747293628499</c:v>
+                  <c:v>9.6864407E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.43477614979118</c:v>
+                  <c:v>9.6864407E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.762817767337299</c:v>
+                  <c:v>2.5907667999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.954970513126703</c:v>
+                  <c:v>2.5907667999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2531836035536301</c:v>
+                  <c:v>0.111489093</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4433323290317999</c:v>
+                  <c:v>0.111489093</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0432970693483599</c:v>
+                  <c:v>8.1843182E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7839849332143101</c:v>
+                  <c:v>8.1843182E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.6754733355837299</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.624195858075399</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.1504080056141</c:v>
+                  <c:v>0.24384</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.76777594040046</c:v>
+                  <c:v>0.26351463400000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.6535292051355</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32.6657378105105</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>51.880320990253502</c:v>
+                  <c:v>0.26351463400000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.0612152297113795</c:v>
+                  <c:v>0.24384</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24384</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23.531152831216499</c:v>
+                  <c:v>0.392848743</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.703245444769301</c:v>
+                  <c:v>0.392848743</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15.9745813671168</c:v>
+                  <c:v>0.392848743</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.496680423021001</c:v>
+                  <c:v>0.392848743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,7 +476,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED97-434C-A5EF-193A61103267}"/>
+              <c16:uniqueId val="{00000000-B42E-4FE4-A5B9-479E57418EA2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -485,11 +488,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1488347407"/>
-        <c:axId val="1488349807"/>
+        <c:axId val="481018623"/>
+        <c:axId val="481011903"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1488347407"/>
+        <c:axId val="481018623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,12 +549,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1488349807"/>
+        <c:crossAx val="481011903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1488349807"/>
+        <c:axId val="481011903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -608,7 +611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1488347407"/>
+        <c:crossAx val="481018623"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -719,11 +722,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AM!$C$1</c:f>
+              <c:f>AM!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>u</c:v>
+                  <c:v>k600_1d</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -766,156 +769,150 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>AM!$B$2:$B$26</c:f>
+              <c:f>AM!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.66360277136277601</c:v>
+                  <c:v>0.62006974316123398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66360277136277601</c:v>
+                  <c:v>0.62006974316123398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84496568832957797</c:v>
+                  <c:v>0.48697835389441602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84496568832957797</c:v>
+                  <c:v>0.48697835389441602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.79712100240526</c:v>
+                  <c:v>5.38997690585983E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.79712100240526</c:v>
+                  <c:v>5.38997690585983E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.91936208989603</c:v>
+                  <c:v>1.34980617447766E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.91936208989603</c:v>
+                  <c:v>1.34980617447766E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5364118092654899</c:v>
+                  <c:v>7.25645899931604E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5364118092654899</c:v>
+                  <c:v>7.25645899931604E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.14254792657094</c:v>
+                  <c:v>7.1632165353124999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.14254792657094</c:v>
+                  <c:v>7.1632165353124999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.76948902444658396</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.74683198736593104</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.634197514012805</c:v>
+                  <c:v>0.31688561142944099</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.81193724612891904</c:v>
+                  <c:v>0.32455049359585503</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.81193724612891904</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.64229622161300404</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.64229622161300404</c:v>
+                  <c:v>0.32455049359585503</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.66551573852542301</c:v>
+                  <c:v>0.36639253722274701</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.66551573852542301</c:v>
+                  <c:v>0.36639253722274701</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.66831711482098599</c:v>
+                  <c:v>0.587817870121772</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.66831711482098599</c:v>
+                  <c:v>0.587817870121772</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.65580679181917101</c:v>
+                  <c:v>0.59903122062865499</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.65580679181917101</c:v>
+                  <c:v>0.59903122062865499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AM!$C$2:$C$26</c:f>
+              <c:f>AM!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.41148000000000001</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41148000000000001</c:v>
+                  <c:v>14.0537866274825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41148000000000001</c:v>
+                  <c:v>14.2509884099436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41148000000000001</c:v>
+                  <c:v>17.9748429691486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6864407E-2</c:v>
+                  <c:v>1.3659747293628499</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6864407E-2</c:v>
+                  <c:v>1.43477614979118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5907667999999998E-2</c:v>
+                  <c:v>0.762817767337299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5907667999999998E-2</c:v>
+                  <c:v>0.954970513126703</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.111489093</c:v>
+                  <c:v>3.2531836035536301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.111489093</c:v>
+                  <c:v>2.4433323290317999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1843182E-2</c:v>
+                  <c:v>7.0432970693483599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.1843182E-2</c:v>
+                  <c:v>2.7839849332143101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24384</c:v>
+                  <c:v>7.6754733355837299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.624195858075399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.1504080056141</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.26351463400000003</c:v>
+                  <c:v>7.76777594040046</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.26351463400000003</c:v>
+                  <c:v>11.6535292051355</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.6657378105105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.880320990253502</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.24384</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.24384</c:v>
+                  <c:v>8.0612152297113795</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.392848743</c:v>
+                  <c:v>23.531152831216499</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.392848743</c:v>
+                  <c:v>18.703245444769301</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.392848743</c:v>
+                  <c:v>15.9745813671168</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.392848743</c:v>
+                  <c:v>17.496680423021001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +920,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B055-4C28-9AA3-A4B69F936549}"/>
+              <c16:uniqueId val="{00000000-E24B-4400-B4B2-F00507D02776}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -935,11 +932,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1494862831"/>
-        <c:axId val="1494863311"/>
+        <c:axId val="650986447"/>
+        <c:axId val="554169119"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1494862831"/>
+        <c:axId val="650986447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,12 +993,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1494863311"/>
+        <c:crossAx val="554169119"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1494863311"/>
+        <c:axId val="554169119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,7 +1055,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1494862831"/>
+        <c:crossAx val="650986447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1169,11 +1166,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>GB!$F$1</c:f>
+              <c:f>GB!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>k600_1d</c:v>
+                  <c:v>u</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1216,8 +1213,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.0104986876640424E-3"/>
-                  <c:y val="-0.61426946631671042"/>
+                  <c:x val="4.3667760279965002E-2"/>
+                  <c:y val="-0.4613137941090697"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1252,114 +1249,126 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>GB!$E$2:$E$21</c:f>
+              <c:f>GB!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.27419154708066701</c:v>
+                  <c:v>0.500234239386116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27419154708066701</c:v>
+                  <c:v>0.500234239386116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39140731253322603</c:v>
+                  <c:v>0.49838619196324002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39140731253322603</c:v>
+                  <c:v>0.49838619196324002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37449092225727298</c:v>
+                  <c:v>0.496481994488156</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37449092225727298</c:v>
+                  <c:v>0.496481994488156</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35812279832522198</c:v>
+                  <c:v>0.49364073113116103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35812279832522198</c:v>
+                  <c:v>0.49364073113116103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.418975600475957</c:v>
+                  <c:v>0.48014251849385198</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.418975600475957</c:v>
+                  <c:v>0.48014251849385198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.41692305897727699</c:v>
+                  <c:v>0.48738009477924898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21787081390374799</c:v>
+                  <c:v>0.46633139234925403</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.31185470424768102</c:v>
+                  <c:v>0.44959398748926399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40903640465934199</c:v>
+                  <c:v>0.42847041975631001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40867897602588799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41829191635495</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.15876455451009799</c:v>
+                  <c:v>0.57001899623787999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.239793889393565</c:v>
+                  <c:v>0.55068895347565805</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.31288063294266599</c:v>
+                  <c:v>0.52913409322569804</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.29428019642854403</c:v>
+                  <c:v>0.51433262189204798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>GB!$F$2:$F$21</c:f>
+              <c:f>GB!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.13716</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.759702379649699</c:v>
+                  <c:v>0.13716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.7604829329048</c:v>
+                  <c:v>0.195072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.63069034185</c:v>
+                  <c:v>0.195072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.082464877533099</c:v>
+                  <c:v>0.18592800000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.278549967453198</c:v>
+                  <c:v>0.18592800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.3266040851639</c:v>
+                  <c:v>0.176784</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.8324828082942</c:v>
+                  <c:v>0.176784</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.5427239203201</c:v>
+                  <c:v>0.20116800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.123963721124101</c:v>
+                  <c:v>0.20116800000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.491084387970799</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.8790872259084</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.545410722183501</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.2301041068087</c:v>
+                  <c:v>0.20319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0498811999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.132051846</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.612268500013801</c:v>
+                  <c:v>0.16555581</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15135790499999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,7 +1376,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E110-40A8-9FC0-A738A50D4F64}"/>
+              <c16:uniqueId val="{00000000-AF59-4D97-8BDB-D486BAD63497}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1379,11 +1388,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1506966751"/>
-        <c:axId val="1506982111"/>
+        <c:axId val="650985967"/>
+        <c:axId val="650988367"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1506966751"/>
+        <c:axId val="650985967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,12 +1449,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1506982111"/>
+        <c:crossAx val="650988367"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1506982111"/>
+        <c:axId val="650988367"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,7 +1511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1506966751"/>
+        <c:crossAx val="650985967"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1613,11 +1622,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>GB!$C$1</c:f>
+              <c:f>GB!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>u</c:v>
+                  <c:v>k600_1d</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1660,8 +1669,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.1443350831146107E-2"/>
-                  <c:y val="-0.38199839603382912"/>
+                  <c:x val="4.9454943132108485E-2"/>
+                  <c:y val="-0.66493985126859145"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1696,123 +1705,123 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>GB!$B$2:$B$21</c:f>
+              <c:f>GB!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.500234239386116</c:v>
+                  <c:v>0.27419154708066701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.500234239386116</c:v>
+                  <c:v>0.27419154708066701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49838619196324002</c:v>
+                  <c:v>0.39140731253322603</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49838619196324002</c:v>
+                  <c:v>0.39140731253322603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.496481994488156</c:v>
+                  <c:v>0.37449092225727298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.496481994488156</c:v>
+                  <c:v>0.37449092225727298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49364073113116103</c:v>
+                  <c:v>0.35812279832522198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49364073113116103</c:v>
+                  <c:v>0.35812279832522198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48014251849385198</c:v>
+                  <c:v>0.418975600475957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.48014251849385198</c:v>
+                  <c:v>0.418975600475957</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.48738009477924898</c:v>
+                  <c:v>0.41692305897727699</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46633139234925403</c:v>
+                  <c:v>0.21787081390374799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.44959398748926399</c:v>
+                  <c:v>0.31185470424768102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.42847041975631001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.40867897602588799</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.41829191635495</c:v>
+                  <c:v>0.40903640465934199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.57001899623787999</c:v>
+                  <c:v>0.15876455451009799</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.55068895347565805</c:v>
+                  <c:v>0.239793889393565</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.52913409322569804</c:v>
+                  <c:v>0.31288063294266599</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.51433262189204798</c:v>
+                  <c:v>0.29428019642854403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>GB!$C$2:$C$21</c:f>
+              <c:f>GB!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.13716</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13716</c:v>
+                  <c:v>20.759702379649699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.195072</c:v>
+                  <c:v>11.7604829329048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.195072</c:v>
+                  <c:v>11.63069034185</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18592800000000001</c:v>
+                  <c:v>16.082464877533099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18592800000000001</c:v>
+                  <c:v>19.278549967453198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.176784</c:v>
+                  <c:v>18.3266040851639</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.176784</c:v>
+                  <c:v>15.8324828082942</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20116800000000001</c:v>
+                  <c:v>12.5427239203201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20116800000000001</c:v>
+                  <c:v>10.123963721124101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17526</c:v>
+                  <c:v>15.491084387970799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.8790872259084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.877696149374302</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.545410722183501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.2301041068087</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.132051846</c:v>
+                  <c:v>44.743071696612503</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.16555581</c:v>
+                  <c:v>17.612268500013801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.15135790499999999</c:v>
+                  <c:v>10.116682809798901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,7 +1829,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-26A4-4C17-9F81-B56CF0465B5F}"/>
+              <c16:uniqueId val="{00000000-137A-4BF5-8D48-6C2CA5C13296}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1832,11 +1841,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1510783391"/>
-        <c:axId val="1510788671"/>
+        <c:axId val="559563103"/>
+        <c:axId val="559567903"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1510783391"/>
+        <c:axId val="559563103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,12 +1902,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1510788671"/>
+        <c:crossAx val="559567903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1510788671"/>
+        <c:axId val="559567903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1964,985 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1510783391"/>
+        <c:crossAx val="559563103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LF!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>u</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LF!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.27582680972963097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27582680972963097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14842325926962999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14842325926962999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13941805406320101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13941805406320101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35708644464821998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35708644464821998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97908907233996301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97908907233996301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73912910715284497</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73912910715284497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50655758454314603</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50655758454314603</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26422745354100802</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26422745354100802</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20547930573848</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20547930573848</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.168078940883987</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.168078940883987</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.25776243935158599</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.30718976746298698</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.24912069961521999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24912069961521999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23799883780685399</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23799883780685399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26752308407063402</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26752308407063402</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.16056832408994501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.16056832408994501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LF!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>9.9059999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9059999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.103632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.103632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.100003886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.100003886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8341643999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8341643999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7164556999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7164556999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9129280999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9129280999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12576395200000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12576395200000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0472021999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0472021999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10404495</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10404495</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.142205108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11911748799999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11911748799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B288-4377-9DF3-9AB298D3888C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="192776815"/>
+        <c:axId val="192777775"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="192776815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192777775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="192777775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192776815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LF!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k600_1d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LF!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.359138403178066</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.359138403178066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69821940651323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69821940651323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71729509260447999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71729509260447999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19138683370444401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19138683370444401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8812601610986702E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8812601610986702E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9998582693852197E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9998582693852197E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24827177765667799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24827177765667799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34240205091314901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34240205091314901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50635245055977096</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50635245055977096</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32164483971442398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32164483971442398</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55169057352857198</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47815170792303902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.47815170792303902</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97021100240578795</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97021100240578795</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87207427654505298</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.87207427654505298</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.45296403460818</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.45296403460818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LF!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>24.690084932127998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.690084932127998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118.259222088889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118.259222088889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.954752325421801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.954752325421801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.73092604234097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.73092604234097</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.1601192837523</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.1601192837523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9516472320781002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9516472320781002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.7702058957052</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.7702058957052</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.983383524448797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.983383524448797</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.152789367811998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.152789367811998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.341043343649702</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.341043343649702</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.9180285667398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.8650769934215</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.1959995510725</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.1959995510725</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.218748150536896</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>94.218748150536896</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>115.910838296351</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>115.910838296351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BBC-429F-A4D5-5C4DCC543DBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1488350767"/>
+        <c:axId val="1488347407"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1488350767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1488347407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1488347407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1488350767"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2171,6 +3158,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4235,27 +5302,1059 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>170996</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>148090</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>170996</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>33790</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84058C2A-BC2D-84C0-A255-98FC4917A5CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5723568D-6F30-465C-6B76-C1E870311CD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4275,23 +6374,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A39DEC4-4C77-7904-2EC7-CF858932990F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305B2FCC-A530-0982-BA29-B1624C664FDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4317,22 +6416,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>718344</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>718344</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68BA564-AEFC-DECD-E9F1-609D09C023A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3210AEA8-1DCC-E3EB-36BE-C186F27E7654}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4353,22 +6452,99 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>103187</xdr:rowOff>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>179387</xdr:rowOff>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4C32E2-0C39-1CF7-D3AD-90F64E19864B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266D8F5C-4B2B-634B-4FB5-6E8C52644873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187AEFAC-F13A-7EED-5423-4F81C144B062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB4813E-DDD7-9266-8F7B-CB99233116D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4670,8 +6846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4717,9 +6893,6 @@
       </c>
       <c r="E2">
         <v>0.62006974316123398</v>
-      </c>
-      <c r="F2">
-        <v>8.7000179355782503</v>
       </c>
       <c r="G2">
         <v>1.5</v>
@@ -5255,14 +7428,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5579,6 +7749,9 @@
       <c r="E14">
         <v>0.31185470424768102</v>
       </c>
+      <c r="F14">
+        <v>31.877696149374302</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5629,6 +7802,9 @@
       <c r="B18">
         <v>0.57001899623787999</v>
       </c>
+      <c r="C18">
+        <v>9.0498811999999998E-2</v>
+      </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
@@ -5658,6 +7834,9 @@
       <c r="E19">
         <v>0.239793889393565</v>
       </c>
+      <c r="F19">
+        <v>44.743071696612503</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -5694,6 +7873,9 @@
       </c>
       <c r="E21">
         <v>0.29428019642854403</v>
+      </c>
+      <c r="F21">
+        <v>10.116682809798901</v>
       </c>
     </row>
   </sheetData>
@@ -6158,8 +8340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6838,6 +9020,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
